--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.87371007170269</v>
+        <v>17.8737100717027</v>
       </c>
       <c r="C2">
-        <v>16.5911852707295</v>
+        <v>16.59118527072952</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.264892196520687</v>
+        <v>7.26489219652066</v>
       </c>
       <c r="F2">
-        <v>36.83089818264676</v>
+        <v>36.83089818264668</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>27.56743910083256</v>
+        <v>27.56743910083247</v>
       </c>
       <c r="I2">
         <v>12.21986903276627</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.64746317183182</v>
+        <v>15.64746317183181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.60052645666327</v>
+        <v>16.6005264566633</v>
       </c>
       <c r="C3">
-        <v>15.37670297057589</v>
+        <v>15.37670297057588</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.830009295548957</v>
+        <v>6.830009295548985</v>
       </c>
       <c r="F3">
-        <v>34.48470173170875</v>
+        <v>34.4847017317088</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26.45914556631098</v>
+        <v>26.459145566311</v>
       </c>
       <c r="I3">
-        <v>12.06506936367083</v>
+        <v>12.06506936367078</v>
       </c>
       <c r="J3">
-        <v>15.98301590772133</v>
+        <v>15.98301590772135</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.63201586429875</v>
+        <v>14.63201586429878</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77990055260765</v>
+        <v>15.77990055260768</v>
       </c>
       <c r="C4">
-        <v>14.59599682792547</v>
+        <v>14.5959968279254</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.549847363529943</v>
+        <v>6.549847363529905</v>
       </c>
       <c r="F4">
-        <v>32.99732485380034</v>
+        <v>32.99732485380027</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>25.78054021080324</v>
+        <v>25.7805402108031</v>
       </c>
       <c r="I4">
         <v>11.97701160152164</v>
       </c>
       <c r="J4">
-        <v>15.20582868512355</v>
+        <v>15.20582868512356</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.97916061379672</v>
+        <v>13.97916061379667</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43552242468076</v>
+        <v>15.43552242468072</v>
       </c>
       <c r="C5">
-        <v>14.26885399372926</v>
+        <v>14.26885399372918</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.432367696121907</v>
+        <v>6.432367696121903</v>
       </c>
       <c r="F5">
-        <v>32.37968908550872</v>
+        <v>32.37968908550869</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25.50461492952817</v>
+        <v>25.50461492952818</v>
       </c>
       <c r="I5">
-        <v>11.94277196498617</v>
+        <v>11.94277196498616</v>
       </c>
       <c r="J5">
-        <v>14.87988303593331</v>
+        <v>14.87988303593326</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.70564139840893</v>
+        <v>13.70564139840891</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.37773148498764</v>
+        <v>15.37773148498779</v>
       </c>
       <c r="C6">
-        <v>14.21398326096597</v>
+        <v>14.21398326096595</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.412660266459548</v>
+        <v>6.412660266459326</v>
       </c>
       <c r="F6">
-        <v>32.27644550504201</v>
+        <v>32.27644550504208</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25.45883943697392</v>
+        <v>25.45883943697389</v>
       </c>
       <c r="I6">
-        <v>11.93718262814808</v>
+        <v>11.93718262814804</v>
       </c>
       <c r="J6">
-        <v>14.82519729758474</v>
+        <v>14.82519729758483</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.65976998702</v>
+        <v>13.65976998701996</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.77529674243832</v>
+        <v>15.77529674243822</v>
       </c>
       <c r="C7">
-        <v>14.59162154792894</v>
+        <v>14.59162154792906</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.548276401798563</v>
+        <v>6.548276401798649</v>
       </c>
       <c r="F7">
-        <v>32.98904140499664</v>
+        <v>32.98904140499662</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25.77681629956846</v>
+        <v>25.7768162995686</v>
       </c>
       <c r="I7">
-        <v>11.97654332020346</v>
+        <v>11.97654332020361</v>
       </c>
       <c r="J7">
-        <v>15.20147048660105</v>
+        <v>15.201470486601</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.97550221100314</v>
+        <v>13.97550221100311</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.44266969064849</v>
+        <v>17.44266969064851</v>
       </c>
       <c r="C8">
         <v>16.17957504762186</v>
@@ -649,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.117665375144289</v>
+        <v>7.117665375144314</v>
       </c>
       <c r="F8">
-        <v>36.03175293466794</v>
+        <v>36.03175293466793</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.18497549944144</v>
+        <v>27.18497549944134</v>
       </c>
       <c r="I8">
-        <v>12.16497345904627</v>
+        <v>12.16497345904621</v>
       </c>
       <c r="J8">
-        <v>16.78127288126333</v>
+        <v>16.78127288126334</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.30337069847561</v>
+        <v>15.30337069847564</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41308972195839</v>
+        <v>20.41308972195836</v>
       </c>
       <c r="C9">
-        <v>19.02552626896959</v>
+        <v>19.02552626896949</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.130728698328909</v>
+        <v>8.13072869832882</v>
       </c>
       <c r="F9">
-        <v>41.67636404352977</v>
+        <v>41.67636404352969</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.95793226396958</v>
+        <v>29.95793226396955</v>
       </c>
       <c r="I9">
-        <v>12.59539593428364</v>
+        <v>12.59539593428367</v>
       </c>
       <c r="J9">
-        <v>19.60229031328421</v>
+        <v>19.60229031328415</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.67952984796881</v>
+        <v>17.67952984796873</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.42725697274056</v>
+        <v>22.42725697274049</v>
       </c>
       <c r="C10">
-        <v>20.9683091811028</v>
+        <v>20.9683091811027</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.813594522044257</v>
+        <v>8.813594522044275</v>
       </c>
       <c r="F10">
         <v>45.76561668181208</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32.00211583855305</v>
+        <v>32.00211583855312</v>
       </c>
       <c r="I10">
-        <v>12.95705012005332</v>
+        <v>12.95705012005338</v>
       </c>
       <c r="J10">
-        <v>21.51986727891813</v>
+        <v>21.51986727891805</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.29534968140792</v>
+        <v>19.29534968140787</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31066328205394</v>
+        <v>23.31066328205391</v>
       </c>
       <c r="C11">
-        <v>21.82390994651681</v>
+        <v>21.82390994651678</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.111426381295217</v>
+        <v>9.111426381295272</v>
       </c>
       <c r="F11">
-        <v>47.56907047968812</v>
+        <v>47.56907047968808</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>32.93497641568944</v>
       </c>
       <c r="I11">
-        <v>13.13353790304373</v>
+        <v>13.13353790304374</v>
       </c>
       <c r="J11">
-        <v>22.36212523865832</v>
+        <v>22.36212523865827</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.00467435732801</v>
+        <v>20.004674357328</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.64081084848554</v>
+        <v>23.64081084848559</v>
       </c>
       <c r="C12">
-        <v>22.14423335322714</v>
+        <v>22.14423335322716</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.222418043472899</v>
+        <v>9.222418043472885</v>
       </c>
       <c r="F12">
-        <v>48.24436811202204</v>
+        <v>48.24436811202198</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>33.28887556180914</v>
+        <v>33.28887556180913</v>
       </c>
       <c r="I12">
         <v>13.20229288548746</v>
       </c>
       <c r="J12">
-        <v>22.67708819791255</v>
+        <v>22.67708819791257</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.26982291073233</v>
+        <v>20.26982291073236</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.56989643653</v>
+        <v>23.56989643652998</v>
       </c>
       <c r="C13">
-        <v>22.07540276624571</v>
+        <v>22.07540276624585</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.198592753934989</v>
+        <v>9.198592753935113</v>
       </c>
       <c r="F13">
-        <v>48.09926042719944</v>
+        <v>48.0992604271995</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33.21262380953277</v>
+        <v>33.21262380953288</v>
       </c>
       <c r="I13">
-        <v>13.18739622225391</v>
+        <v>13.18739622225397</v>
       </c>
       <c r="J13">
-        <v>22.6094264423039</v>
+        <v>22.60942644230389</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.2128679416125</v>
+        <v>20.21286794161256</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.33791034610167</v>
+        <v>23.33791034610157</v>
       </c>
       <c r="C14">
-        <v>21.8503344171442</v>
+        <v>21.85033441714429</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.120593302621998</v>
+        <v>9.120593302621934</v>
       </c>
       <c r="F14">
-        <v>47.62477712198728</v>
+        <v>47.62477712198726</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32.96407737551738</v>
+        <v>32.96407737551734</v>
       </c>
       <c r="I14">
-        <v>13.13915461995293</v>
+        <v>13.1391546199529</v>
       </c>
       <c r="J14">
-        <v>22.38811511120739</v>
+        <v>22.38811511120734</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.02655606129408</v>
+        <v>20.02655606129402</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.19525288436522</v>
+        <v>23.1952528843652</v>
       </c>
       <c r="C15">
-        <v>21.71200724159704</v>
+        <v>21.71200724159714</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.072584817355942</v>
+        <v>9.072584817355928</v>
       </c>
       <c r="F15">
-        <v>47.33316625821876</v>
+        <v>47.33316625821885</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32.81192770436288</v>
+        <v>32.81192770436297</v>
       </c>
       <c r="I15">
-        <v>13.10986214216479</v>
+        <v>13.1098621421648</v>
       </c>
       <c r="J15">
-        <v>22.25204789676548</v>
+        <v>22.2520478967655</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.91199221322989</v>
+        <v>19.91199221322994</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.36889169161881</v>
+        <v>22.36889169161883</v>
       </c>
       <c r="C16">
         <v>20.91185772767733</v>
@@ -953,28 +953,28 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.793876963040384</v>
+        <v>8.793876963040411</v>
       </c>
       <c r="F16">
-        <v>45.64665742592567</v>
+        <v>45.64665742592572</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31.94122731562197</v>
+        <v>31.94122731562213</v>
       </c>
       <c r="I16">
-        <v>12.94577368883093</v>
+        <v>12.94577368883098</v>
       </c>
       <c r="J16">
-        <v>21.46424694127872</v>
+        <v>21.46424694127871</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.24849587281756</v>
+        <v>19.24849587281757</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.85376348528347</v>
+        <v>21.85376348528344</v>
       </c>
       <c r="C17">
-        <v>20.41402703171417</v>
+        <v>20.41402703171406</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.619652184942057</v>
+        <v>8.619652184942247</v>
       </c>
       <c r="F17">
-        <v>44.59784394810652</v>
+        <v>44.59784394810642</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31.40796446648964</v>
+        <v>31.40796446648949</v>
       </c>
       <c r="I17">
-        <v>12.84831131734164</v>
+        <v>12.84831131734158</v>
       </c>
       <c r="J17">
-        <v>20.97348592102326</v>
+        <v>20.97348592102317</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.83503504998162</v>
+        <v>18.83503504998163</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.55436041794503</v>
+        <v>21.55436041794497</v>
       </c>
       <c r="C18">
-        <v>20.12500994257145</v>
+        <v>20.12500994257138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.518233699282804</v>
+        <v>8.518233699282906</v>
       </c>
       <c r="F18">
-        <v>43.98921274680175</v>
+        <v>43.98921274680163</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31.10150494616106</v>
+        <v>31.10150494616089</v>
       </c>
       <c r="I18">
-        <v>12.79336660666313</v>
+        <v>12.79336660666308</v>
       </c>
       <c r="J18">
-        <v>20.68836109879049</v>
+        <v>20.68836109879042</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.59478593952368</v>
+        <v>18.59478593952369</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.45244293025616</v>
+        <v>21.45244293025626</v>
       </c>
       <c r="C19">
-        <v>20.0266830846167</v>
+        <v>20.02668308461667</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.483686074283449</v>
+        <v>8.483686074283414</v>
       </c>
       <c r="F19">
         <v>43.78220195811026</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30.99778232460276</v>
+        <v>30.99778232460275</v>
       </c>
       <c r="I19">
-        <v>12.77494874449471</v>
+        <v>12.7749487444947</v>
       </c>
       <c r="J19">
-        <v>20.5913232666075</v>
+        <v>20.59132326660755</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.51301634127386</v>
+        <v>18.51301634127389</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90891979885365</v>
+        <v>21.9089197988537</v>
       </c>
       <c r="C20">
         <v>20.46729655354672</v>
@@ -1105,28 +1105,28 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.638323493682163</v>
+        <v>8.638323493682028</v>
       </c>
       <c r="F20">
-        <v>44.71004538153815</v>
+        <v>44.71004538153826</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31.46470308510374</v>
+        <v>31.46470308510388</v>
       </c>
       <c r="I20">
-        <v>12.85856978321047</v>
+        <v>12.85856978321056</v>
       </c>
       <c r="J20">
-        <v>21.02602113029925</v>
+        <v>21.02602113029926</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.8792992903428</v>
+        <v>18.87929929034274</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.40616615554563</v>
+        <v>23.40616615554561</v>
       </c>
       <c r="C21">
-        <v>21.91653887229959</v>
+        <v>21.9165388722996</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.143551788918662</v>
+        <v>9.143551788918606</v>
       </c>
       <c r="F21">
-        <v>47.76434669005524</v>
+        <v>47.7643466900552</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>33.03706174298871</v>
+        <v>33.03706174298861</v>
       </c>
       <c r="I21">
-        <v>13.15327040881356</v>
+        <v>13.15327040881351</v>
       </c>
       <c r="J21">
         <v>22.45322472722742</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.08137209643097</v>
+        <v>20.08137209643098</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.35937354461999</v>
+        <v>24.35937354461993</v>
       </c>
       <c r="C22">
-        <v>22.84250455737819</v>
+        <v>22.84250455737804</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.463338934171382</v>
+        <v>9.463338934171469</v>
       </c>
       <c r="F22">
-        <v>49.71635729929751</v>
+        <v>49.71635729929744</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34.06862316251845</v>
+        <v>34.0686231625184</v>
       </c>
       <c r="I22">
-        <v>13.35719840227888</v>
+        <v>13.35719840227887</v>
       </c>
       <c r="J22">
-        <v>23.3629701935115</v>
+        <v>23.36297019351142</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.84698477181288</v>
+        <v>20.84698477181286</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85281986208875</v>
+        <v>23.85281986208881</v>
       </c>
       <c r="C23">
-        <v>22.35009903073293</v>
+        <v>22.35009903073299</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.293596010267464</v>
+        <v>9.293596010267425</v>
       </c>
       <c r="F23">
-        <v>48.67836721447676</v>
+        <v>48.67836721447696</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33.51760077828809</v>
+        <v>33.51760077828826</v>
       </c>
       <c r="I23">
-        <v>13.24724742991152</v>
+        <v>13.24724742991154</v>
       </c>
       <c r="J23">
-        <v>22.8794021919117</v>
+        <v>22.87940219191179</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.44010402222503</v>
+        <v>20.44010402222505</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.88399377474869</v>
+        <v>21.88399377474865</v>
       </c>
       <c r="C24">
-        <v>20.44322217554198</v>
+        <v>20.44322217554185</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.629886105733735</v>
+        <v>8.629886105733844</v>
       </c>
       <c r="F24">
-        <v>44.65933676432122</v>
+        <v>44.65933676432119</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31.4390511960305</v>
+        <v>31.43905119603049</v>
       </c>
       <c r="I24">
-        <v>12.85392855769664</v>
+        <v>12.85392855769666</v>
       </c>
       <c r="J24">
-        <v>21.00227926854623</v>
+        <v>21.00227926854616</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.85929537199754</v>
+        <v>18.85929537199753</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.64017104076249</v>
+        <v>19.64017104076258</v>
       </c>
       <c r="C25">
-        <v>18.28284473912152</v>
+        <v>18.28284473912159</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.867606045564189</v>
+        <v>7.867606045564073</v>
       </c>
       <c r="F25">
-        <v>40.15066541108117</v>
+        <v>40.15066541108129</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29.20678755652664</v>
+        <v>29.2067875565267</v>
       </c>
       <c r="I25">
-        <v>12.47162612153143</v>
+        <v>12.47162612153141</v>
       </c>
       <c r="J25">
-        <v>18.86744870213273</v>
+        <v>18.86744870213285</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.06027237543252</v>
+        <v>17.06027237543254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.8737100717027</v>
+        <v>17.87371007170269</v>
       </c>
       <c r="C2">
-        <v>16.59118527072952</v>
+        <v>16.5911852707295</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.26489219652066</v>
+        <v>7.264892196520687</v>
       </c>
       <c r="F2">
-        <v>36.83089818264668</v>
+        <v>36.83089818264676</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>27.56743910083247</v>
+        <v>27.56743910083256</v>
       </c>
       <c r="I2">
         <v>12.21986903276627</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.64746317183181</v>
+        <v>15.64746317183182</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.6005264566633</v>
+        <v>16.60052645666327</v>
       </c>
       <c r="C3">
-        <v>15.37670297057588</v>
+        <v>15.37670297057589</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.830009295548985</v>
+        <v>6.830009295548957</v>
       </c>
       <c r="F3">
-        <v>34.4847017317088</v>
+        <v>34.48470173170875</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>26.459145566311</v>
+        <v>26.45914556631098</v>
       </c>
       <c r="I3">
-        <v>12.06506936367078</v>
+        <v>12.06506936367083</v>
       </c>
       <c r="J3">
-        <v>15.98301590772135</v>
+        <v>15.98301590772133</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.63201586429878</v>
+        <v>14.63201586429875</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77990055260768</v>
+        <v>15.77990055260765</v>
       </c>
       <c r="C4">
-        <v>14.5959968279254</v>
+        <v>14.59599682792547</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.549847363529905</v>
+        <v>6.549847363529943</v>
       </c>
       <c r="F4">
-        <v>32.99732485380027</v>
+        <v>32.99732485380034</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>25.7805402108031</v>
+        <v>25.78054021080324</v>
       </c>
       <c r="I4">
         <v>11.97701160152164</v>
       </c>
       <c r="J4">
-        <v>15.20582868512356</v>
+        <v>15.20582868512355</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.97916061379667</v>
+        <v>13.97916061379672</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43552242468072</v>
+        <v>15.43552242468076</v>
       </c>
       <c r="C5">
-        <v>14.26885399372918</v>
+        <v>14.26885399372926</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.432367696121903</v>
+        <v>6.432367696121907</v>
       </c>
       <c r="F5">
-        <v>32.37968908550869</v>
+        <v>32.37968908550872</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25.50461492952818</v>
+        <v>25.50461492952817</v>
       </c>
       <c r="I5">
-        <v>11.94277196498616</v>
+        <v>11.94277196498617</v>
       </c>
       <c r="J5">
-        <v>14.87988303593326</v>
+        <v>14.87988303593331</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.70564139840891</v>
+        <v>13.70564139840893</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.37773148498779</v>
+        <v>15.37773148498764</v>
       </c>
       <c r="C6">
-        <v>14.21398326096595</v>
+        <v>14.21398326096597</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.412660266459326</v>
+        <v>6.412660266459548</v>
       </c>
       <c r="F6">
-        <v>32.27644550504208</v>
+        <v>32.27644550504201</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25.45883943697389</v>
+        <v>25.45883943697392</v>
       </c>
       <c r="I6">
-        <v>11.93718262814804</v>
+        <v>11.93718262814808</v>
       </c>
       <c r="J6">
-        <v>14.82519729758483</v>
+        <v>14.82519729758474</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.65976998701996</v>
+        <v>13.65976998702</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.77529674243822</v>
+        <v>15.77529674243832</v>
       </c>
       <c r="C7">
-        <v>14.59162154792906</v>
+        <v>14.59162154792894</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.548276401798649</v>
+        <v>6.548276401798563</v>
       </c>
       <c r="F7">
-        <v>32.98904140499662</v>
+        <v>32.98904140499664</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25.7768162995686</v>
+        <v>25.77681629956846</v>
       </c>
       <c r="I7">
-        <v>11.97654332020361</v>
+        <v>11.97654332020346</v>
       </c>
       <c r="J7">
-        <v>15.201470486601</v>
+        <v>15.20147048660105</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.97550221100311</v>
+        <v>13.97550221100314</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.44266969064851</v>
+        <v>17.44266969064849</v>
       </c>
       <c r="C8">
         <v>16.17957504762186</v>
@@ -649,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.117665375144314</v>
+        <v>7.117665375144289</v>
       </c>
       <c r="F8">
-        <v>36.03175293466793</v>
+        <v>36.03175293466794</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.18497549944134</v>
+        <v>27.18497549944144</v>
       </c>
       <c r="I8">
-        <v>12.16497345904621</v>
+        <v>12.16497345904627</v>
       </c>
       <c r="J8">
-        <v>16.78127288126334</v>
+        <v>16.78127288126333</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.30337069847564</v>
+        <v>15.30337069847561</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41308972195836</v>
+        <v>20.41308972195839</v>
       </c>
       <c r="C9">
-        <v>19.02552626896949</v>
+        <v>19.02552626896959</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.13072869832882</v>
+        <v>8.130728698328909</v>
       </c>
       <c r="F9">
-        <v>41.67636404352969</v>
+        <v>41.67636404352977</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.95793226396955</v>
+        <v>29.95793226396958</v>
       </c>
       <c r="I9">
-        <v>12.59539593428367</v>
+        <v>12.59539593428364</v>
       </c>
       <c r="J9">
-        <v>19.60229031328415</v>
+        <v>19.60229031328421</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.67952984796873</v>
+        <v>17.67952984796881</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.42725697274049</v>
+        <v>22.42725697274056</v>
       </c>
       <c r="C10">
-        <v>20.9683091811027</v>
+        <v>20.9683091811028</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.813594522044275</v>
+        <v>8.813594522044257</v>
       </c>
       <c r="F10">
         <v>45.76561668181208</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32.00211583855312</v>
+        <v>32.00211583855305</v>
       </c>
       <c r="I10">
-        <v>12.95705012005338</v>
+        <v>12.95705012005332</v>
       </c>
       <c r="J10">
-        <v>21.51986727891805</v>
+        <v>21.51986727891813</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.29534968140787</v>
+        <v>19.29534968140792</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31066328205391</v>
+        <v>23.31066328205394</v>
       </c>
       <c r="C11">
-        <v>21.82390994651678</v>
+        <v>21.82390994651681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.111426381295272</v>
+        <v>9.111426381295217</v>
       </c>
       <c r="F11">
-        <v>47.56907047968808</v>
+        <v>47.56907047968812</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>32.93497641568944</v>
       </c>
       <c r="I11">
-        <v>13.13353790304374</v>
+        <v>13.13353790304373</v>
       </c>
       <c r="J11">
-        <v>22.36212523865827</v>
+        <v>22.36212523865832</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.004674357328</v>
+        <v>20.00467435732801</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.64081084848559</v>
+        <v>23.64081084848554</v>
       </c>
       <c r="C12">
-        <v>22.14423335322716</v>
+        <v>22.14423335322714</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.222418043472885</v>
+        <v>9.222418043472899</v>
       </c>
       <c r="F12">
-        <v>48.24436811202198</v>
+        <v>48.24436811202204</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>33.28887556180913</v>
+        <v>33.28887556180914</v>
       </c>
       <c r="I12">
         <v>13.20229288548746</v>
       </c>
       <c r="J12">
-        <v>22.67708819791257</v>
+        <v>22.67708819791255</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.26982291073236</v>
+        <v>20.26982291073233</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.56989643652998</v>
+        <v>23.56989643653</v>
       </c>
       <c r="C13">
-        <v>22.07540276624585</v>
+        <v>22.07540276624571</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.198592753935113</v>
+        <v>9.198592753934989</v>
       </c>
       <c r="F13">
-        <v>48.0992604271995</v>
+        <v>48.09926042719944</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33.21262380953288</v>
+        <v>33.21262380953277</v>
       </c>
       <c r="I13">
-        <v>13.18739622225397</v>
+        <v>13.18739622225391</v>
       </c>
       <c r="J13">
-        <v>22.60942644230389</v>
+        <v>22.6094264423039</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.21286794161256</v>
+        <v>20.2128679416125</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.33791034610157</v>
+        <v>23.33791034610167</v>
       </c>
       <c r="C14">
-        <v>21.85033441714429</v>
+        <v>21.8503344171442</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.120593302621934</v>
+        <v>9.120593302621998</v>
       </c>
       <c r="F14">
-        <v>47.62477712198726</v>
+        <v>47.62477712198728</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32.96407737551734</v>
+        <v>32.96407737551738</v>
       </c>
       <c r="I14">
-        <v>13.1391546199529</v>
+        <v>13.13915461995293</v>
       </c>
       <c r="J14">
-        <v>22.38811511120734</v>
+        <v>22.38811511120739</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.02655606129402</v>
+        <v>20.02655606129408</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1952528843652</v>
+        <v>23.19525288436522</v>
       </c>
       <c r="C15">
-        <v>21.71200724159714</v>
+        <v>21.71200724159704</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.072584817355928</v>
+        <v>9.072584817355942</v>
       </c>
       <c r="F15">
-        <v>47.33316625821885</v>
+        <v>47.33316625821876</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32.81192770436297</v>
+        <v>32.81192770436288</v>
       </c>
       <c r="I15">
-        <v>13.1098621421648</v>
+        <v>13.10986214216479</v>
       </c>
       <c r="J15">
-        <v>22.2520478967655</v>
+        <v>22.25204789676548</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.91199221322994</v>
+        <v>19.91199221322989</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.36889169161883</v>
+        <v>22.36889169161881</v>
       </c>
       <c r="C16">
         <v>20.91185772767733</v>
@@ -953,28 +953,28 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.793876963040411</v>
+        <v>8.793876963040384</v>
       </c>
       <c r="F16">
-        <v>45.64665742592572</v>
+        <v>45.64665742592567</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31.94122731562213</v>
+        <v>31.94122731562197</v>
       </c>
       <c r="I16">
-        <v>12.94577368883098</v>
+        <v>12.94577368883093</v>
       </c>
       <c r="J16">
-        <v>21.46424694127871</v>
+        <v>21.46424694127872</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.24849587281757</v>
+        <v>19.24849587281756</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.85376348528344</v>
+        <v>21.85376348528347</v>
       </c>
       <c r="C17">
-        <v>20.41402703171406</v>
+        <v>20.41402703171417</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.619652184942247</v>
+        <v>8.619652184942057</v>
       </c>
       <c r="F17">
-        <v>44.59784394810642</v>
+        <v>44.59784394810652</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31.40796446648949</v>
+        <v>31.40796446648964</v>
       </c>
       <c r="I17">
-        <v>12.84831131734158</v>
+        <v>12.84831131734164</v>
       </c>
       <c r="J17">
-        <v>20.97348592102317</v>
+        <v>20.97348592102326</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.83503504998163</v>
+        <v>18.83503504998162</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.55436041794497</v>
+        <v>21.55436041794503</v>
       </c>
       <c r="C18">
-        <v>20.12500994257138</v>
+        <v>20.12500994257145</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.518233699282906</v>
+        <v>8.518233699282804</v>
       </c>
       <c r="F18">
-        <v>43.98921274680163</v>
+        <v>43.98921274680175</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31.10150494616089</v>
+        <v>31.10150494616106</v>
       </c>
       <c r="I18">
-        <v>12.79336660666308</v>
+        <v>12.79336660666313</v>
       </c>
       <c r="J18">
-        <v>20.68836109879042</v>
+        <v>20.68836109879049</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.59478593952369</v>
+        <v>18.59478593952368</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.45244293025626</v>
+        <v>21.45244293025616</v>
       </c>
       <c r="C19">
-        <v>20.02668308461667</v>
+        <v>20.0266830846167</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.483686074283414</v>
+        <v>8.483686074283449</v>
       </c>
       <c r="F19">
         <v>43.78220195811026</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30.99778232460275</v>
+        <v>30.99778232460276</v>
       </c>
       <c r="I19">
-        <v>12.7749487444947</v>
+        <v>12.77494874449471</v>
       </c>
       <c r="J19">
-        <v>20.59132326660755</v>
+        <v>20.5913232666075</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.51301634127389</v>
+        <v>18.51301634127386</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.9089197988537</v>
+        <v>21.90891979885365</v>
       </c>
       <c r="C20">
         <v>20.46729655354672</v>
@@ -1105,28 +1105,28 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.638323493682028</v>
+        <v>8.638323493682163</v>
       </c>
       <c r="F20">
-        <v>44.71004538153826</v>
+        <v>44.71004538153815</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31.46470308510388</v>
+        <v>31.46470308510374</v>
       </c>
       <c r="I20">
-        <v>12.85856978321056</v>
+        <v>12.85856978321047</v>
       </c>
       <c r="J20">
-        <v>21.02602113029926</v>
+        <v>21.02602113029925</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.87929929034274</v>
+        <v>18.8792992903428</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.40616615554561</v>
+        <v>23.40616615554563</v>
       </c>
       <c r="C21">
-        <v>21.9165388722996</v>
+        <v>21.91653887229959</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.143551788918606</v>
+        <v>9.143551788918662</v>
       </c>
       <c r="F21">
-        <v>47.7643466900552</v>
+        <v>47.76434669005524</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>33.03706174298861</v>
+        <v>33.03706174298871</v>
       </c>
       <c r="I21">
-        <v>13.15327040881351</v>
+        <v>13.15327040881356</v>
       </c>
       <c r="J21">
         <v>22.45322472722742</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.08137209643098</v>
+        <v>20.08137209643097</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.35937354461993</v>
+        <v>24.35937354461999</v>
       </c>
       <c r="C22">
-        <v>22.84250455737804</v>
+        <v>22.84250455737819</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.463338934171469</v>
+        <v>9.463338934171382</v>
       </c>
       <c r="F22">
-        <v>49.71635729929744</v>
+        <v>49.71635729929751</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34.0686231625184</v>
+        <v>34.06862316251845</v>
       </c>
       <c r="I22">
-        <v>13.35719840227887</v>
+        <v>13.35719840227888</v>
       </c>
       <c r="J22">
-        <v>23.36297019351142</v>
+        <v>23.3629701935115</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.84698477181286</v>
+        <v>20.84698477181288</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85281986208881</v>
+        <v>23.85281986208875</v>
       </c>
       <c r="C23">
-        <v>22.35009903073299</v>
+        <v>22.35009903073293</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.293596010267425</v>
+        <v>9.293596010267464</v>
       </c>
       <c r="F23">
-        <v>48.67836721447696</v>
+        <v>48.67836721447676</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33.51760077828826</v>
+        <v>33.51760077828809</v>
       </c>
       <c r="I23">
-        <v>13.24724742991154</v>
+        <v>13.24724742991152</v>
       </c>
       <c r="J23">
-        <v>22.87940219191179</v>
+        <v>22.8794021919117</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.44010402222505</v>
+        <v>20.44010402222503</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.88399377474865</v>
+        <v>21.88399377474869</v>
       </c>
       <c r="C24">
-        <v>20.44322217554185</v>
+        <v>20.44322217554198</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.629886105733844</v>
+        <v>8.629886105733735</v>
       </c>
       <c r="F24">
-        <v>44.65933676432119</v>
+        <v>44.65933676432122</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31.43905119603049</v>
+        <v>31.4390511960305</v>
       </c>
       <c r="I24">
-        <v>12.85392855769666</v>
+        <v>12.85392855769664</v>
       </c>
       <c r="J24">
-        <v>21.00227926854616</v>
+        <v>21.00227926854623</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.85929537199753</v>
+        <v>18.85929537199754</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.64017104076258</v>
+        <v>19.64017104076249</v>
       </c>
       <c r="C25">
-        <v>18.28284473912159</v>
+        <v>18.28284473912152</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.867606045564073</v>
+        <v>7.867606045564189</v>
       </c>
       <c r="F25">
-        <v>40.15066541108129</v>
+        <v>40.15066541108117</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29.2067875565267</v>
+        <v>29.20678755652664</v>
       </c>
       <c r="I25">
-        <v>12.47162612153141</v>
+        <v>12.47162612153143</v>
       </c>
       <c r="J25">
-        <v>18.86744870213285</v>
+        <v>18.86744870213273</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.06027237543254</v>
+        <v>17.06027237543252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.87371007170269</v>
+        <v>17.75192325516025</v>
       </c>
       <c r="C2">
-        <v>16.5911852707295</v>
+        <v>16.4683881205895</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.264892196520687</v>
+        <v>7.408982052598084</v>
       </c>
       <c r="F2">
-        <v>36.83089818264676</v>
+        <v>36.83023987739335</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.074325743777567</v>
       </c>
       <c r="H2">
-        <v>27.56743910083256</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.21986903276627</v>
+        <v>27.76438924722057</v>
       </c>
       <c r="J2">
-        <v>17.19011587339468</v>
+        <v>12.37823046678509</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.04955951363649</v>
       </c>
       <c r="L2">
-        <v>15.64746317183182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>15.59360520338816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.60052645666327</v>
+        <v>16.48308322672791</v>
       </c>
       <c r="C3">
-        <v>15.37670297057589</v>
+        <v>15.26156736470698</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.830009295548957</v>
+        <v>6.978404537257689</v>
       </c>
       <c r="F3">
-        <v>34.48470173170875</v>
+        <v>34.49702534237991</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.085905019366289</v>
       </c>
       <c r="H3">
-        <v>26.45914556631098</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.06506936367083</v>
+        <v>26.68029904017309</v>
       </c>
       <c r="J3">
-        <v>15.98301590772133</v>
+        <v>12.23224774212484</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.84547421259028</v>
       </c>
       <c r="L3">
-        <v>14.63201586429875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>14.57947133654035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77990055260765</v>
+        <v>15.66519951026005</v>
       </c>
       <c r="C4">
-        <v>14.59599682792547</v>
+        <v>14.48593288531197</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.549847363529943</v>
+        <v>6.701327281857481</v>
       </c>
       <c r="F4">
-        <v>32.99732485380034</v>
+        <v>33.01842884655215</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.093147314345582</v>
       </c>
       <c r="H4">
-        <v>25.78054021080324</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.97701160152164</v>
+        <v>26.01747706803604</v>
       </c>
       <c r="J4">
-        <v>15.20582868512355</v>
+        <v>12.14957864433494</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.07005487380628</v>
       </c>
       <c r="L4">
-        <v>13.97916061379672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.92736193856457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43552242468076</v>
+        <v>15.32195977258339</v>
       </c>
       <c r="C5">
-        <v>14.26885399372926</v>
+        <v>14.1609583508514</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.432367696121907</v>
+        <v>6.585222368918117</v>
       </c>
       <c r="F5">
-        <v>32.37968908550872</v>
+        <v>32.40458751675801</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.096135293058967</v>
       </c>
       <c r="H5">
-        <v>25.50461492952817</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.94277196498617</v>
+        <v>25.74820608946071</v>
       </c>
       <c r="J5">
-        <v>14.87988303593331</v>
+        <v>12.11752879038945</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.74480714229898</v>
       </c>
       <c r="L5">
-        <v>13.70564139840893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.65413095291984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.37773148498764</v>
+        <v>15.2643591797629</v>
       </c>
       <c r="C6">
-        <v>14.21398326096597</v>
+        <v>14.10645408998244</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.412660266459548</v>
+        <v>6.565750543373144</v>
       </c>
       <c r="F6">
-        <v>32.27644550504201</v>
+        <v>32.30198744786158</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.096633752755762</v>
       </c>
       <c r="H6">
-        <v>25.45883943697392</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.93718262814808</v>
+        <v>25.70354863053174</v>
       </c>
       <c r="J6">
-        <v>14.82519729758474</v>
+        <v>12.11230269959968</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.69023586510072</v>
       </c>
       <c r="L6">
-        <v>13.65976998702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.60830643013486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.77529674243832</v>
+        <v>15.66061096560864</v>
       </c>
       <c r="C7">
-        <v>14.59162154792894</v>
+        <v>14.48158642351027</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.548276401798563</v>
+        <v>6.699774374217101</v>
       </c>
       <c r="F7">
-        <v>32.98904140499664</v>
+        <v>33.01019567766627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.093187458518528</v>
       </c>
       <c r="H7">
-        <v>25.77681629956846</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.97654332020346</v>
+        <v>26.01384201340992</v>
       </c>
       <c r="J7">
-        <v>15.20147048660105</v>
+        <v>12.14913991983303</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.06570618169572</v>
       </c>
       <c r="L7">
-        <v>13.97550221100314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.92370748751536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.44266969064849</v>
+        <v>17.32236623002674</v>
       </c>
       <c r="C8">
-        <v>16.17957504762186</v>
+        <v>16.0593484813636</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.117665375144289</v>
+        <v>7.263151964211779</v>
       </c>
       <c r="F8">
-        <v>36.03175293466794</v>
+        <v>36.03541040165263</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.078292873412942</v>
       </c>
       <c r="H8">
-        <v>27.18497549944144</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.16497345904627</v>
+        <v>27.39007483465463</v>
       </c>
       <c r="J8">
-        <v>16.78127288126333</v>
+        <v>12.3263802335808</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.64177259267333</v>
       </c>
       <c r="L8">
-        <v>15.30337069847561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.24997804372095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41308972195839</v>
+        <v>20.28226001747469</v>
       </c>
       <c r="C9">
-        <v>19.02552626896959</v>
+        <v>18.88787251750147</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.130728698328909</v>
+        <v>8.26767194568566</v>
       </c>
       <c r="F9">
-        <v>41.67636404352977</v>
+        <v>41.62544399961311</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.049967882617807</v>
       </c>
       <c r="H9">
-        <v>29.95793226396958</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.59539593428364</v>
+        <v>30.10798808085379</v>
       </c>
       <c r="J9">
-        <v>19.60229031328421</v>
+        <v>12.73465340412112</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.45482147468073</v>
       </c>
       <c r="L9">
-        <v>17.67952984796881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>17.6225187539592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.42725697274056</v>
+        <v>22.28881327203969</v>
       </c>
       <c r="C10">
-        <v>20.9683091811028</v>
+        <v>20.81895914647844</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.813594522044257</v>
+        <v>8.945948592528168</v>
       </c>
       <c r="F10">
-        <v>45.76561668181208</v>
+        <v>45.69884771815914</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.029429373319983</v>
       </c>
       <c r="H10">
-        <v>32.00211583855305</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.95705012005332</v>
+        <v>32.11643344766536</v>
       </c>
       <c r="J10">
-        <v>21.51986727891813</v>
+        <v>13.07988443707325</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.36610223362736</v>
       </c>
       <c r="L10">
-        <v>19.29534968140792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>19.23534166308189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31066328205394</v>
+        <v>23.16873065121968</v>
       </c>
       <c r="C11">
-        <v>21.82390994651681</v>
+        <v>21.66938329182715</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.111426381295217</v>
+        <v>9.242010374626771</v>
       </c>
       <c r="F11">
-        <v>47.56907047968812</v>
+        <v>47.49541436015593</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.02007492815253</v>
       </c>
       <c r="H11">
-        <v>32.93497641568944</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.13353790304373</v>
+        <v>33.03401151412529</v>
       </c>
       <c r="J11">
-        <v>22.36212523865832</v>
+        <v>13.24885569121567</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.20536782009985</v>
       </c>
       <c r="L11">
-        <v>20.00467435732801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>19.94320868655441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.64081084848554</v>
+        <v>23.49754801346826</v>
       </c>
       <c r="C12">
-        <v>22.14423335322714</v>
+        <v>21.9877585317177</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.222418043472899</v>
+        <v>9.352374068892788</v>
       </c>
       <c r="F12">
-        <v>48.24436811202204</v>
+        <v>48.1681371295448</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.016524146396255</v>
       </c>
       <c r="H12">
-        <v>33.28887556180914</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.20229288548746</v>
+        <v>33.38225595832602</v>
       </c>
       <c r="J12">
-        <v>22.67708819791255</v>
+        <v>13.31475592107118</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.51917496996322</v>
       </c>
       <c r="L12">
-        <v>20.26982291073233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>20.20778907110098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.56989643653</v>
+        <v>23.42692058433168</v>
       </c>
       <c r="C13">
-        <v>22.07540276624571</v>
+        <v>21.91934712661272</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.198592753934989</v>
+        <v>9.328682190046408</v>
       </c>
       <c r="F13">
-        <v>48.09926042719944</v>
+        <v>48.02358273442223</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.017289366651994</v>
       </c>
       <c r="H13">
-        <v>33.21262380953277</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.18739622225391</v>
+        <v>33.30721631299504</v>
       </c>
       <c r="J13">
-        <v>22.6094264423039</v>
+        <v>13.30047449354134</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.45176322890598</v>
       </c>
       <c r="L13">
-        <v>20.2128679416125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>20.15095723790468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.33791034610167</v>
+        <v>23.19586849436771</v>
       </c>
       <c r="C14">
-        <v>21.8503344171442</v>
+        <v>21.69564729576044</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.120593302621998</v>
+        <v>9.251124802133864</v>
       </c>
       <c r="F14">
-        <v>47.62477712198728</v>
+        <v>47.55090858175758</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.019783015440478</v>
       </c>
       <c r="H14">
-        <v>32.96407737551738</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.13915461995293</v>
+        <v>33.06264465910416</v>
       </c>
       <c r="J14">
-        <v>22.38811511120739</v>
+        <v>13.25423772838278</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.23126308691275</v>
       </c>
       <c r="L14">
-        <v>20.02655606129408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>19.96504398931074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.19525288436522</v>
+        <v>23.05378178050184</v>
       </c>
       <c r="C15">
-        <v>21.71200724159704</v>
+        <v>21.5581596819145</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.072584817355942</v>
+        <v>9.203392512945118</v>
       </c>
       <c r="F15">
-        <v>47.33316625821876</v>
+        <v>47.26040978477452</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.021309126071404</v>
       </c>
       <c r="H15">
-        <v>32.81192770436288</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>13.10986214216479</v>
+        <v>32.91294662199314</v>
       </c>
       <c r="J15">
-        <v>22.25204789676548</v>
+        <v>13.22617210549424</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.09568964867229</v>
       </c>
       <c r="L15">
-        <v>19.91199221322989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>19.85072211478738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.36889169161881</v>
+        <v>22.23067505672472</v>
       </c>
       <c r="C16">
-        <v>20.91185772767733</v>
+        <v>20.76284818088358</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.793876963040384</v>
+        <v>8.926352806854446</v>
       </c>
       <c r="F16">
-        <v>45.64665742592567</v>
+        <v>45.58034393388255</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.03003991915304</v>
       </c>
       <c r="H16">
-        <v>31.94122731562197</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.94577368883093</v>
+        <v>32.05656269968062</v>
       </c>
       <c r="J16">
-        <v>21.46424694127872</v>
+        <v>13.06909817371912</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.31067454443275</v>
       </c>
       <c r="L16">
-        <v>19.24849587281756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19.188581011243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.85376348528347</v>
+        <v>21.71753339320223</v>
       </c>
       <c r="C17">
-        <v>20.41402703171417</v>
+        <v>20.26801649186936</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.619652184942057</v>
+        <v>8.753230202190981</v>
       </c>
       <c r="F17">
-        <v>44.59784394810652</v>
+        <v>44.53555647640825</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.03538852036325</v>
       </c>
       <c r="H17">
-        <v>31.40796446648964</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.84831131734164</v>
+        <v>31.53232771044471</v>
       </c>
       <c r="J17">
-        <v>20.97348592102326</v>
+        <v>12.97592626747999</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.82158713101634</v>
       </c>
       <c r="L17">
-        <v>18.83503504998162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>18.77592580131942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.55436041794503</v>
+        <v>21.41927093359962</v>
       </c>
       <c r="C18">
-        <v>20.12500994257145</v>
+        <v>19.98073846805227</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.518233699282804</v>
+        <v>8.65247571802483</v>
       </c>
       <c r="F18">
-        <v>43.98921274680175</v>
+        <v>43.92927212306105</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.038464286535597</v>
       </c>
       <c r="H18">
-        <v>31.10150494616106</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.79336660666313</v>
+        <v>31.23115319802967</v>
       </c>
       <c r="J18">
-        <v>20.68836109879049</v>
+        <v>12.92344518684576</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.537413185611</v>
       </c>
       <c r="L18">
-        <v>18.59478593952368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>18.53613137967156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.45244293025616</v>
+        <v>21.31773943915</v>
       </c>
       <c r="C19">
-        <v>20.0266830846167</v>
+        <v>19.88300310041525</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.483686074283449</v>
+        <v>8.618158184365273</v>
       </c>
       <c r="F19">
-        <v>43.78220195811026</v>
+        <v>43.72306168312524</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.03950577549719</v>
       </c>
       <c r="H19">
-        <v>30.99778232460276</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.77494874449471</v>
+        <v>31.12923604896076</v>
       </c>
       <c r="J19">
-        <v>20.5913232666075</v>
+        <v>12.90586080014829</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.44069539508789</v>
       </c>
       <c r="L19">
-        <v>18.51301634127386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>18.45451430780733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90891979885365</v>
+        <v>21.77247847828421</v>
       </c>
       <c r="C20">
-        <v>20.46729655354672</v>
+        <v>20.32096536284458</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.638323493682163</v>
+        <v>8.771781097104746</v>
       </c>
       <c r="F20">
-        <v>44.71004538153815</v>
+        <v>44.64732619838189</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.034819261755302</v>
       </c>
       <c r="H20">
-        <v>31.46470308510374</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.85856978321047</v>
+        <v>31.58809577904464</v>
       </c>
       <c r="J20">
-        <v>21.02602113029925</v>
+        <v>12.98572844424184</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.87394542309435</v>
       </c>
       <c r="L20">
-        <v>18.8792992903428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18.82010519745006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.40616615554563</v>
+        <v>23.26385025877832</v>
       </c>
       <c r="C21">
-        <v>21.91653887229959</v>
+        <v>21.76144952883302</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.143551788918662</v>
+        <v>9.273952319673629</v>
       </c>
       <c r="F21">
-        <v>47.76434669005524</v>
+        <v>47.68994596839798</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.019050859356097</v>
       </c>
       <c r="H21">
-        <v>33.03706174298871</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13.15327040881356</v>
+        <v>33.13445801973415</v>
       </c>
       <c r="J21">
-        <v>22.45322472722742</v>
+        <v>13.2677648956058</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.29613509273714</v>
       </c>
       <c r="L21">
-        <v>20.08137209643097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>20.01974340097266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.35937354461999</v>
+        <v>24.21316228904275</v>
       </c>
       <c r="C22">
-        <v>22.84250455737819</v>
+        <v>22.68175702870651</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.463338934171382</v>
+        <v>9.591986903720544</v>
       </c>
       <c r="F22">
-        <v>49.71635729929751</v>
+        <v>49.63450828873823</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.008692054332024</v>
       </c>
       <c r="H22">
-        <v>34.06862316251845</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.35719840227888</v>
+        <v>34.14979546480419</v>
       </c>
       <c r="J22">
-        <v>23.3629701935115</v>
+        <v>13.46336551482713</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.20246855169805</v>
       </c>
       <c r="L22">
-        <v>20.84698477181288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>20.78366872478098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85281986208875</v>
+        <v>23.70869485287843</v>
       </c>
       <c r="C23">
-        <v>22.35009903073293</v>
+        <v>22.19236848611483</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.293596010267464</v>
+        <v>9.423157899633935</v>
       </c>
       <c r="F23">
-        <v>48.67836721447676</v>
+        <v>48.60048110915045</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.014228149551475</v>
       </c>
       <c r="H23">
-        <v>33.51760077828809</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.24724742991152</v>
+        <v>33.60736539352697</v>
       </c>
       <c r="J23">
-        <v>22.8794021919117</v>
+        <v>13.35786452454751</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.72073574129859</v>
       </c>
       <c r="L23">
-        <v>20.44010402222503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>20.37769843903165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.88399377474869</v>
+        <v>21.74764795480777</v>
       </c>
       <c r="C24">
-        <v>20.44322217554198</v>
+        <v>20.29703590406249</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.629886105733735</v>
+        <v>8.763398053464977</v>
       </c>
       <c r="F24">
-        <v>44.65933676432122</v>
+        <v>44.59681265652722</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.035076620629415</v>
       </c>
       <c r="H24">
-        <v>31.4390511960305</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.85392855769664</v>
+        <v>31.56288237989699</v>
       </c>
       <c r="J24">
-        <v>21.00227926854623</v>
+        <v>12.98129351630057</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.85028358051289</v>
       </c>
       <c r="L24">
-        <v>18.85929537199754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>18.80013966337505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.64017104076249</v>
+        <v>19.51215308086406</v>
       </c>
       <c r="C25">
-        <v>18.28284473912152</v>
+        <v>18.14967930343459</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.867606045564189</v>
+        <v>8.006545735912059</v>
       </c>
       <c r="F25">
-        <v>40.15066541108117</v>
+        <v>40.13302385920476</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.0575615156406</v>
       </c>
       <c r="H25">
-        <v>29.20678755652664</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.47162612153143</v>
+        <v>29.37090301835095</v>
       </c>
       <c r="J25">
-        <v>18.86744870213273</v>
+        <v>12.61689927450806</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.72220582349395</v>
       </c>
       <c r="L25">
-        <v>17.06027237543252</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>17.00429457132667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.75192325516025</v>
+        <v>18.08712263648722</v>
       </c>
       <c r="C2">
-        <v>16.4683881205895</v>
+        <v>9.497533150673924</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.408982052598084</v>
+        <v>6.834271909580733</v>
       </c>
       <c r="F2">
-        <v>36.83023987739335</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.074325743777567</v>
+        <v>2.133679164985427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.76438924722057</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.37823046678509</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.04955951363649</v>
+        <v>14.23845431470235</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.224488952831746</v>
       </c>
       <c r="M2">
-        <v>15.59360520338816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.73558024036405</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>37.39110423989772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.48308322672791</v>
+        <v>17.0199415053828</v>
       </c>
       <c r="C3">
-        <v>15.26156736470698</v>
+        <v>8.955253388338832</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.978404537257689</v>
+        <v>6.834025357481967</v>
       </c>
       <c r="F3">
-        <v>34.49702534237991</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.085905019366289</v>
+        <v>2.144373305003986</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.68029904017309</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.23224774212484</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.84547421259028</v>
+        <v>13.21704164972132</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.157895235981476</v>
       </c>
       <c r="M3">
-        <v>14.57947133654035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.35899695666469</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>36.04495797892914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.66519951026005</v>
+        <v>16.34669302653176</v>
       </c>
       <c r="C4">
-        <v>14.48593288531197</v>
+        <v>8.608714056872536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.701327281857481</v>
+        <v>6.835168676422519</v>
       </c>
       <c r="F4">
-        <v>33.01842884655215</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.093147314345582</v>
+        <v>2.151079383379847</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.01747706803604</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.14957864433494</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.07005487380628</v>
+        <v>12.55820557184658</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.120107671296193</v>
       </c>
       <c r="M4">
-        <v>13.92736193856457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.13100267937044</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>35.22016184720657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.32195977258339</v>
+        <v>16.06804343155915</v>
       </c>
       <c r="C5">
-        <v>14.1609583508514</v>
+        <v>8.464060548347046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.585222368918117</v>
+        <v>6.835945942593975</v>
       </c>
       <c r="F5">
-        <v>32.40458751675801</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.096135293058967</v>
+        <v>2.15384997369774</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.74820608946071</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.11752879038945</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.74480714229898</v>
+        <v>12.28162592665787</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.105474274386646</v>
       </c>
       <c r="M5">
-        <v>13.65413095291984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.03899438997538</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>34.8846686581002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.2643591797629</v>
+        <v>16.02152256257182</v>
       </c>
       <c r="C6">
-        <v>14.10645408998244</v>
+        <v>8.439833117686875</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.565750543373144</v>
+        <v>6.836093418232486</v>
       </c>
       <c r="F6">
-        <v>32.30198744786158</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.096633752755762</v>
+        <v>2.154312385193703</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.70354863053174</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12.11230269959968</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.69023586510072</v>
+        <v>12.23520727691556</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.103090208344316</v>
       </c>
       <c r="M6">
-        <v>13.60830643013486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.02377367869481</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>34.82900353230551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.66061096560864</v>
+        <v>16.34295209659018</v>
       </c>
       <c r="C7">
-        <v>14.48158642351027</v>
+        <v>8.606777137393028</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.699774374217101</v>
+        <v>6.835177916185967</v>
       </c>
       <c r="F7">
-        <v>33.01019567766627</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.093187458518528</v>
+        <v>2.15111659209122</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.01384201340992</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.14913991983303</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.06570618169572</v>
+        <v>12.55450848050264</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.119907240564568</v>
       </c>
       <c r="M7">
-        <v>13.92370748751536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.12975805042575</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>35.21563450289432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.32236623002674</v>
+        <v>17.72300933167954</v>
       </c>
       <c r="C8">
-        <v>16.0593484813636</v>
+        <v>9.313354608005406</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.263151964211779</v>
+        <v>6.833909257489061</v>
       </c>
       <c r="F8">
-        <v>36.03541040165263</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.078292873412942</v>
+        <v>2.137339142950416</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.39007483465463</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.3263802335808</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.64177259267333</v>
+        <v>13.89276552134818</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.200875032429042</v>
       </c>
       <c r="M8">
-        <v>15.24997804372095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.60511464333437</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>36.9266866484666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.28226001747469</v>
+        <v>20.28467029263795</v>
       </c>
       <c r="C9">
-        <v>18.88787251750147</v>
+        <v>10.59312798745906</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.26767194568566</v>
+        <v>6.8424028191474</v>
       </c>
       <c r="F9">
-        <v>41.62544399961311</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.049967882617807</v>
+        <v>2.111299375659128</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.10798808085379</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.73465340412112</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.45482147468073</v>
+        <v>16.27210411794294</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.384932280567184</v>
       </c>
       <c r="M9">
-        <v>17.6225187539592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.55958493292133</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>40.2903872831098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.28881327203969</v>
+        <v>22.27223459109699</v>
       </c>
       <c r="C10">
-        <v>20.81895914647844</v>
+        <v>11.47282869579898</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.945948592528168</v>
+        <v>6.856444608309886</v>
       </c>
       <c r="F10">
-        <v>45.69884771815914</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.029429373319983</v>
+        <v>2.092558983497609</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.11643344766536</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.07988443707325</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.36610223362736</v>
+        <v>17.88065991775042</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.536578601043313</v>
       </c>
       <c r="M10">
-        <v>19.23534166308189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.2710989340145</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>42.76363125297101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16873065121968</v>
+        <v>23.14462074489205</v>
       </c>
       <c r="C11">
-        <v>21.66938329182715</v>
+        <v>11.86112370301425</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.242010374626771</v>
+        <v>6.864813316121751</v>
       </c>
       <c r="F11">
-        <v>47.49541436015593</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.02007492815253</v>
+        <v>2.084065814720151</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.03401151412529</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13.24885569121567</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.20536782009985</v>
+        <v>18.58458276133198</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.609385572084301</v>
       </c>
       <c r="M11">
-        <v>19.94320868655441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.59668998422321</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.88988346836237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.49754801346826</v>
+        <v>23.47063226742529</v>
       </c>
       <c r="C12">
-        <v>21.9877585317177</v>
+        <v>12.00658194315755</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.352374068892788</v>
+        <v>6.868295048163281</v>
       </c>
       <c r="F12">
-        <v>48.1681371295448</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>2.016524146396255</v>
+        <v>2.080849223272934</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.38225595832602</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.31475592107118</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.51917496996322</v>
+        <v>18.8473697175015</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.637529799346456</v>
       </c>
       <c r="M12">
-        <v>20.20778907110098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.72026079823087</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>44.31668875789615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42692058433168</v>
+        <v>23.40060892987806</v>
       </c>
       <c r="C13">
-        <v>21.91934712661272</v>
+        <v>11.97532290545123</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.328682190046408</v>
+        <v>6.867530803436951</v>
       </c>
       <c r="F13">
-        <v>48.02358273442223</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>2.017289366651994</v>
+        <v>2.081542078982692</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.30721631299504</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.30047449354134</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.45176322890598</v>
+        <v>18.79093776475055</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.631442487457368</v>
       </c>
       <c r="M13">
-        <v>20.15095723790468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.69363503165775</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>44.22475111294385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19586849436771</v>
+        <v>23.17152749084876</v>
       </c>
       <c r="C14">
-        <v>21.69564729576044</v>
+        <v>11.87312149734025</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.251124802133864</v>
+        <v>6.865093320492191</v>
       </c>
       <c r="F14">
-        <v>47.55090858175758</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.019783015440478</v>
+        <v>2.083801223108518</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.06264465910416</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.25423772838278</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.23126308691275</v>
+        <v>18.6062766311345</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.611689361721558</v>
       </c>
       <c r="M14">
-        <v>19.96504398931074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.60685059335951</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>43.92498944536432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.05378178050184</v>
+        <v>23.0306504261978</v>
       </c>
       <c r="C15">
-        <v>21.5581596819145</v>
+        <v>11.81031855637461</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.203392512945118</v>
+        <v>6.863641903855545</v>
       </c>
       <c r="F15">
-        <v>47.26040978477452</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.021309126071404</v>
+        <v>2.085184800584158</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.91294662199314</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>13.22617210549424</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.09568964867229</v>
+        <v>18.49268213968009</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.59966551446713</v>
       </c>
       <c r="M15">
-        <v>19.85072211478738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.55372908213657</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.7414241573715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.23067505672472</v>
+        <v>22.21460124713373</v>
       </c>
       <c r="C16">
-        <v>20.76284818088358</v>
+        <v>11.44722398514653</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.926352806854446</v>
+        <v>6.855939848954907</v>
       </c>
       <c r="F16">
-        <v>45.58034393388255</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.03003991915304</v>
+        <v>2.093114261446305</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.05656269968062</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.06909817371912</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.31067454443275</v>
+        <v>17.83411593793258</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.531899385999846</v>
       </c>
       <c r="M16">
-        <v>19.188581011243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.24985889556108</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>42.69006234056869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.71753339320223</v>
+        <v>21.7059931341098</v>
       </c>
       <c r="C17">
-        <v>20.26801649186936</v>
+        <v>11.22151717723057</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.753230202190981</v>
+        <v>6.851740904526162</v>
       </c>
       <c r="F17">
-        <v>44.53555647640825</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.03538852036325</v>
+        <v>2.097983545455876</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.53232771044471</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.97592626747999</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.82158713101634</v>
+        <v>17.42313548984894</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.491322049199173</v>
       </c>
       <c r="M17">
-        <v>18.77592580131942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.06392861688947</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>42.04546396896954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41927093359962</v>
+        <v>21.41044921445108</v>
       </c>
       <c r="C18">
-        <v>19.98073846805227</v>
+        <v>11.09056884627295</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.65247571802483</v>
+        <v>6.849510374870128</v>
       </c>
       <c r="F18">
-        <v>43.92927212306105</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.038464286535597</v>
+        <v>2.100787569314326</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.23115319802967</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.92344518684576</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.537413185611</v>
+        <v>17.18411710210259</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.46834116371158</v>
       </c>
       <c r="M18">
-        <v>18.53613137967156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.95716564426265</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>41.67480327659787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.31773943915</v>
+        <v>21.30986062256428</v>
       </c>
       <c r="C19">
-        <v>19.88300310041525</v>
+        <v>11.04603476678502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.618158184365273</v>
+        <v>6.848786072637686</v>
       </c>
       <c r="F19">
-        <v>43.72306168312524</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>2.03950577549719</v>
+        <v>2.101737679466534</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.12923604896076</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.90586080014829</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.44069539508789</v>
+        <v>17.10273082164325</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.460621064853303</v>
       </c>
       <c r="M19">
-        <v>18.45451430780733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.92104870509087</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>41.54931708136675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.77247847828421</v>
+        <v>21.76044493810508</v>
       </c>
       <c r="C20">
-        <v>20.32096536284458</v>
+        <v>11.24565991396235</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.771781097104746</v>
+        <v>6.852168595254317</v>
       </c>
       <c r="F20">
-        <v>44.64732619838189</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.034819261755302</v>
+        <v>2.09746489033005</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.58809577904464</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.98572844424184</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.87394542309435</v>
+        <v>17.46715603780434</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.495604348728603</v>
       </c>
       <c r="M20">
-        <v>18.82010519745006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.08370274143684</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>42.11407188828631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.26385025877832</v>
+        <v>23.23893010122932</v>
       </c>
       <c r="C21">
-        <v>21.76144952883302</v>
+        <v>11.90318228380321</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.273952319673629</v>
+        <v>6.865800541187118</v>
       </c>
       <c r="F21">
-        <v>47.68994596839798</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>2.019050859356097</v>
+        <v>2.083137712100175</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.13445801973415</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.2677648956058</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.29613509273714</v>
+        <v>18.66061654897803</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.61747554779267</v>
       </c>
       <c r="M21">
-        <v>20.01974340097266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.63233365052347</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>44.01302644323855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.21316228904275</v>
+        <v>24.18003146806685</v>
       </c>
       <c r="C22">
-        <v>22.68175702870651</v>
+        <v>12.32377532546685</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.591986903720544</v>
+        <v>6.876548212805007</v>
       </c>
       <c r="F22">
-        <v>49.63450828873823</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.008692054332024</v>
+        <v>2.073768844040425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.14979546480419</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.46336551482713</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.20246855169805</v>
+        <v>19.41874357287685</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.700484372233871</v>
       </c>
       <c r="M22">
-        <v>20.78366872478098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.12290152619557</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>45.25609148791195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.70869485287843</v>
+        <v>23.67996572494621</v>
       </c>
       <c r="C23">
-        <v>22.19236848611483</v>
+        <v>12.10008398814898</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.423157899633935</v>
+        <v>6.870633524299883</v>
       </c>
       <c r="F23">
-        <v>48.60048110915045</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.014228149551475</v>
+        <v>2.078771496162255</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.60736539352697</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>13.35786452454751</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.72073574129859</v>
+        <v>19.01603569117479</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.655864556834732</v>
       </c>
       <c r="M23">
-        <v>20.37769843903165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.83398180637512</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>44.59238911102711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.74764795480777</v>
+        <v>21.73583706928685</v>
       </c>
       <c r="C24">
-        <v>20.29703590406249</v>
+        <v>11.23474868769045</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.763398053464977</v>
+        <v>6.851974666762352</v>
       </c>
       <c r="F24">
-        <v>44.59681265652722</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>2.035076620629415</v>
+        <v>2.097699359591882</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.56288237989699</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.98129351630057</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.85028358051289</v>
+        <v>17.44726290012733</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.493667240289851</v>
       </c>
       <c r="M24">
-        <v>18.80013966337505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.07476245194226</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>42.08305448404712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.51215308086406</v>
+        <v>19.60490029495177</v>
       </c>
       <c r="C25">
-        <v>18.14967930343459</v>
+        <v>10.25790297189045</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.006545735912059</v>
+        <v>6.838822898791765</v>
       </c>
       <c r="F25">
-        <v>40.13302385920476</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>2.0575615156406</v>
+        <v>2.118258958647522</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.37090301835095</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.61689927450806</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.72220582349395</v>
+        <v>15.65369975152261</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.332334179578081</v>
       </c>
       <c r="M25">
-        <v>17.00429457132667</v>
+        <v>12.29939412388656</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>39.38007213692556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08712263648722</v>
+        <v>14.07447657663711</v>
       </c>
       <c r="C2">
-        <v>9.497533150673924</v>
+        <v>8.519597743245981</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.834271909580733</v>
+        <v>29.43940473174807</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.133679164985427</v>
+        <v>2.084063598664789</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.66405563682598</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.23845431470235</v>
+        <v>12.80288169060028</v>
       </c>
       <c r="L2">
-        <v>6.224488952831746</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.73558024036405</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>37.39110423989772</v>
+        <v>12.60076494459776</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.0199415053828</v>
+        <v>13.19999391590257</v>
       </c>
       <c r="C3">
-        <v>8.955253388338832</v>
+        <v>8.043075915477543</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.834025357481967</v>
+        <v>27.31710627372271</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.144373305003986</v>
+        <v>2.089141841698791</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.00370168551567</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.21704164972132</v>
+        <v>12.08812482709058</v>
       </c>
       <c r="L3">
-        <v>6.157895235981476</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.35899695666469</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>36.04495797892914</v>
+        <v>12.81126369474915</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.34669302653176</v>
+        <v>12.63329905901849</v>
       </c>
       <c r="C4">
-        <v>8.608714056872536</v>
+        <v>7.736566347238624</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.835168676422519</v>
+        <v>25.95029878409085</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.151079383379847</v>
+        <v>2.092338928487028</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.22249269011175</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.55820557184658</v>
+        <v>11.62753704091403</v>
       </c>
       <c r="L4">
-        <v>6.120107671296193</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.13100267937044</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>35.22016184720657</v>
+        <v>12.95710360635703</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.06804343155915</v>
+        <v>12.3948927987952</v>
       </c>
       <c r="C5">
-        <v>8.464060548347046</v>
+        <v>7.608198201863617</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.835945942593975</v>
+        <v>25.37700742520047</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.15384997369774</v>
+        <v>2.093662440725215</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.314126288362</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.28162592665787</v>
+        <v>11.43444432936386</v>
       </c>
       <c r="L5">
-        <v>6.105474274386646</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.03899438997538</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>34.8846686581002</v>
+        <v>13.02043301415101</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.02152256257182</v>
+        <v>12.35485481156101</v>
       </c>
       <c r="C6">
-        <v>8.439833117686875</v>
+        <v>7.586675023793957</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.836093418232486</v>
+        <v>25.28081989751297</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.154312385193703</v>
+        <v>2.093883480078147</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.32948876511279</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.23520727691556</v>
+        <v>11.40205759142181</v>
       </c>
       <c r="L6">
-        <v>6.103090208344316</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.02377367869481</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>34.82900353230551</v>
+        <v>13.03117670587832</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.34295209659018</v>
+        <v>12.63011406550179</v>
       </c>
       <c r="C7">
-        <v>8.606777137393028</v>
+        <v>7.734849089770279</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.835177916185967</v>
+        <v>25.94263356742638</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.15111659209122</v>
+        <v>2.092356693104199</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.22371859632384</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.55450848050264</v>
+        <v>11.62495468802796</v>
       </c>
       <c r="L7">
-        <v>6.119907240564568</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.12975805042575</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>35.21563450289432</v>
+        <v>12.95794224920987</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.72300933167954</v>
+        <v>13.77913275046666</v>
       </c>
       <c r="C8">
-        <v>9.313354608005406</v>
+        <v>8.358201065185046</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.833909257489061</v>
+        <v>28.72068113455056</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.137339142950416</v>
+        <v>2.085798674155206</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.77897174093868</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.89276552134818</v>
+        <v>12.56097387827982</v>
       </c>
       <c r="L8">
-        <v>6.200875032429042</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.60511464333437</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>36.9266866484666</v>
+        <v>12.66972892280052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.28467029263795</v>
+        <v>15.79652808758496</v>
       </c>
       <c r="C9">
-        <v>10.59312798745906</v>
+        <v>9.46918328322247</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.8424028191474</v>
+        <v>33.67677690910133</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.111299375659128</v>
+        <v>2.073526331271265</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.99378241788346</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.27210411794294</v>
+        <v>14.2223831132658</v>
       </c>
       <c r="L9">
-        <v>6.384932280567184</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.55958493292133</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>40.2903872831098</v>
+        <v>12.24974754882071</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.27223459109699</v>
+        <v>17.13621534979612</v>
       </c>
       <c r="C10">
-        <v>11.47282869579898</v>
+        <v>10.21717734169469</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.856444608309886</v>
+        <v>37.03916509530585</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.092558983497609</v>
+        <v>2.064808941689125</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.47974511643944</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.88065991775042</v>
+        <v>15.33577830531275</v>
       </c>
       <c r="L10">
-        <v>6.536578601043313</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.2710989340145</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>42.76363125297101</v>
+        <v>12.05026645434367</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.14462074489205</v>
+        <v>17.71520595457859</v>
       </c>
       <c r="C11">
-        <v>11.86112370301425</v>
+        <v>10.54280027473699</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.864813316121751</v>
+        <v>38.51338362036895</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.084065814720151</v>
+        <v>2.060893533907322</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.26242485399926</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.58458276133198</v>
+        <v>15.81907271054679</v>
       </c>
       <c r="L11">
-        <v>6.609385572084301</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.59668998422321</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.88988346836237</v>
+        <v>11.98820712107133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.47063226742529</v>
+        <v>17.93012601007398</v>
       </c>
       <c r="C12">
-        <v>12.00658194315755</v>
+        <v>10.66402492362013</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.868295048163281</v>
+        <v>39.06414728217391</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.080849223272934</v>
+        <v>2.059416746088059</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.18281239436321</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.8473697175015</v>
+        <v>15.99876912668889</v>
       </c>
       <c r="L12">
-        <v>6.637529799346456</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.72026079823087</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>44.31668875789615</v>
+        <v>11.9692823717131</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.40060892987806</v>
+        <v>17.88403094055471</v>
       </c>
       <c r="C13">
-        <v>11.97532290545123</v>
+        <v>10.63800912778711</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.867530803436951</v>
+        <v>38.94585564176179</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.081542078982692</v>
+        <v>2.059734559214713</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.19983355249962</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.79093776475055</v>
+        <v>15.96021538161925</v>
       </c>
       <c r="L13">
-        <v>6.631442487457368</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>13.69363503165775</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>44.22475111294385</v>
+        <v>11.97314719761456</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.17152749084876</v>
+        <v>17.7329740669833</v>
       </c>
       <c r="C14">
-        <v>11.87312149734025</v>
+        <v>10.55281504878231</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.865093320492191</v>
+        <v>38.558842547831</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.083801223108518</v>
+        <v>2.060771927651313</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.25581936768954</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.6062766311345</v>
+        <v>15.8339227671613</v>
       </c>
       <c r="L14">
-        <v>6.611689361721558</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.60685059335951</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.92498944536432</v>
+        <v>11.98655579222952</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.0306504261978</v>
+        <v>17.63988483282102</v>
       </c>
       <c r="C15">
-        <v>11.81031855637461</v>
+        <v>10.50036099087338</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.863641903855545</v>
+        <v>38.32082505558533</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.085184800584158</v>
+        <v>2.061408071573792</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.29047169086598</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.49268213968009</v>
+        <v>15.75613371048864</v>
       </c>
       <c r="L15">
-        <v>6.59966551446713</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.55372908213657</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.7414241573715</v>
+        <v>11.99537866228794</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.21460124713373</v>
+        <v>17.09776818436601</v>
       </c>
       <c r="C16">
-        <v>11.44722398514653</v>
+        <v>10.19560429313911</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.855939848954907</v>
+        <v>36.94174660865333</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.093114261446305</v>
+        <v>2.06506572232322</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.49430478764076</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.83411593793258</v>
+        <v>15.30372848091984</v>
       </c>
       <c r="L16">
-        <v>6.531899385999846</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.24985889556108</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>42.69006234056869</v>
+        <v>12.05493734823656</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.7059931341098</v>
+        <v>16.75743108908709</v>
       </c>
       <c r="C17">
-        <v>11.22151717723057</v>
+        <v>10.00490951319255</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.851740904526162</v>
+        <v>36.08186863040442</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.097983545455876</v>
+        <v>2.067321522860257</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.62378066217149</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.42313548984894</v>
+        <v>15.02026148410594</v>
       </c>
       <c r="L17">
-        <v>6.491322049199173</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.06392861688947</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>42.04546396896954</v>
+        <v>12.09913414961725</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41044921445108</v>
+        <v>16.55880978560555</v>
       </c>
       <c r="C18">
-        <v>11.09056884627295</v>
+        <v>9.893846582792488</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.849510374870128</v>
+        <v>35.58204916153984</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.100787569314326</v>
+        <v>2.068623809028098</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.6997848881005</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.18411710210259</v>
+        <v>14.85503371169373</v>
       </c>
       <c r="L18">
-        <v>6.46834116371158</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.95716564426265</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>41.67480327659787</v>
+        <v>12.12722630128298</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.30986062256428</v>
+        <v>16.49106609807086</v>
       </c>
       <c r="C19">
-        <v>11.04603476678502</v>
+        <v>9.856004931362838</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.848786072637686</v>
+        <v>35.41190534826737</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.101737679466534</v>
+        <v>2.069065604983367</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.72577351923799</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.10273082164325</v>
+        <v>14.79871475913435</v>
       </c>
       <c r="L19">
-        <v>6.460621064853303</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.92104870509087</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>41.54931708136675</v>
+        <v>12.1371833167278</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.76044493810508</v>
+        <v>16.79395711423091</v>
       </c>
       <c r="C20">
-        <v>11.24565991396235</v>
+        <v>10.02535201357336</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.852168595254317</v>
+        <v>36.17394323325264</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.09746489033005</v>
+        <v>2.067080900462166</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.60983702475028</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.46715603780434</v>
+        <v>15.05066307509792</v>
       </c>
       <c r="L20">
-        <v>6.495604348728603</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.08370274143684</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>42.11407188828631</v>
+        <v>12.09414967024809</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.23893010122932</v>
+        <v>17.77746027136524</v>
       </c>
       <c r="C21">
-        <v>11.90318228380321</v>
+        <v>10.57789487342029</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.865800541187118</v>
+        <v>38.67271699685497</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.083137712100175</v>
+        <v>2.060467078691749</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.23929944620953</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.66061654897803</v>
+        <v>15.87110777859881</v>
       </c>
       <c r="L21">
-        <v>6.61747554779267</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>13.63233365052347</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>44.01302644323855</v>
+        <v>11.98248945840522</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.18003146806685</v>
+        <v>18.39501830557549</v>
       </c>
       <c r="C22">
-        <v>12.32377532546685</v>
+        <v>10.92689769142542</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.876548212805007</v>
+        <v>40.26240208414713</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.073768844040425</v>
+        <v>2.056178194336728</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.01295155697749</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.41874357287685</v>
+        <v>16.38800017119173</v>
       </c>
       <c r="L22">
-        <v>6.700484372233871</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.12290152619557</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>45.25609148791195</v>
+        <v>11.93641069473992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.67996572494621</v>
+        <v>18.06770615329447</v>
       </c>
       <c r="C23">
-        <v>12.10008398814898</v>
+        <v>10.74172655620817</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.870633524299883</v>
+        <v>39.41776098629555</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.078771496162255</v>
+        <v>2.058464648274958</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.13219279831818</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.01603569117479</v>
+        <v>16.11388329006852</v>
       </c>
       <c r="L23">
-        <v>6.655864556834732</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>13.83398180637512</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>44.59238911102711</v>
+        <v>11.9583872731188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73583706928685</v>
+        <v>16.77745291197045</v>
       </c>
       <c r="C24">
-        <v>11.23474868769045</v>
+        <v>10.01611441486167</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.851974666762352</v>
+        <v>36.13233335969043</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.097699359591882</v>
+        <v>2.067189668941841</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.61613608534142</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.44726290012733</v>
+        <v>15.03692555280933</v>
       </c>
       <c r="L24">
-        <v>6.493667240289851</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.07476245194226</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>42.08305448404712</v>
+        <v>12.09639483083428</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.60490029495177</v>
+        <v>15.27592295008272</v>
       </c>
       <c r="C25">
-        <v>10.25790297189045</v>
+        <v>9.18063733756768</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.838822898791765</v>
+        <v>32.38660577214904</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.118258958647522</v>
+        <v>2.076789209126116</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.19599463702097</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.65369975152261</v>
+        <v>13.79173985282778</v>
       </c>
       <c r="L25">
-        <v>6.332334179578081</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.29939412388656</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>39.38007213692556</v>
+        <v>12.34580433027702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07447657663711</v>
+        <v>9.009879765497161</v>
       </c>
       <c r="C2">
-        <v>8.519597743245981</v>
+        <v>5.599489441753191</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.43940473174807</v>
+        <v>16.47399902757701</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.084063598664789</v>
+        <v>3.623945550992193</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.66405563682598</v>
+        <v>19.30489788898617</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.80288169060028</v>
+        <v>8.671611005735192</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.60076494459776</v>
+        <v>20.20347284556664</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.19999391590257</v>
+        <v>8.630761302971296</v>
       </c>
       <c r="C3">
-        <v>8.043075915477543</v>
+        <v>5.367221005072948</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.31710627372271</v>
+        <v>15.54225315833312</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.089141841698791</v>
+        <v>3.625723298481784</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.00370168551567</v>
+        <v>19.43538010381587</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.08812482709058</v>
+        <v>8.401180415057457</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.81126369474915</v>
+        <v>20.3273605825577</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63329905901849</v>
+        <v>8.389943824977188</v>
       </c>
       <c r="C4">
-        <v>7.736566347238624</v>
+        <v>5.218364348879858</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.95029878409085</v>
+        <v>14.94538028204554</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.092338928487028</v>
+        <v>3.626870449567402</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.22249269011175</v>
+        <v>19.51999790817245</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.62753704091403</v>
+        <v>8.231417972037269</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.95710360635703</v>
+        <v>20.4088348157008</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3948927987952</v>
+        <v>8.289923342536975</v>
       </c>
       <c r="C5">
-        <v>7.608198201863617</v>
+        <v>5.156186789485888</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.37700742520047</v>
+        <v>14.69618924354749</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.093662440725215</v>
+        <v>3.627351952571535</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.314126288362</v>
+        <v>19.5556127403363</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.43444432936386</v>
+        <v>8.161404318877347</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.02043301415101</v>
+        <v>20.44339219217695</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35485481156101</v>
+        <v>8.27320545228028</v>
       </c>
       <c r="C6">
-        <v>7.586675023793957</v>
+        <v>5.14577229873687</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.28081989751297</v>
+        <v>14.65446019445285</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.093883480078147</v>
+        <v>3.627432754508902</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.32948876511279</v>
+        <v>19.56159496663507</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.40205759142181</v>
+        <v>8.149731322719607</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.03117670587832</v>
+        <v>20.4492122123913</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.63011406550179</v>
+        <v>8.388602355638607</v>
       </c>
       <c r="C7">
-        <v>7.734849089770279</v>
+        <v>5.217531868915247</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.94263356742638</v>
+        <v>14.94204334288634</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.092356693104199</v>
+        <v>3.626876886417826</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.22371859632384</v>
+        <v>19.520473636535</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.62495468802796</v>
+        <v>8.230476981895206</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.95794224920987</v>
+        <v>20.40929538302825</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77913275046666</v>
+        <v>8.880903882887999</v>
       </c>
       <c r="C8">
-        <v>8.358201065185046</v>
+        <v>5.520728256488041</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.72068113455056</v>
+        <v>16.15802185921916</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.085798674155206</v>
+        <v>3.624547005352831</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.77897174093868</v>
+        <v>19.34895423884792</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.56097387827982</v>
+        <v>8.579195884674409</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.66972892280052</v>
+        <v>20.24506500546945</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.79652808758496</v>
+        <v>9.777424417304136</v>
       </c>
       <c r="C9">
-        <v>9.46918328322247</v>
+        <v>6.063812892722454</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.67677690910133</v>
+        <v>18.41440043739083</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.073526331271265</v>
+        <v>3.620417186630857</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.99378241788346</v>
+        <v>19.04829641018113</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.2223831132658</v>
+        <v>9.229526057623017</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.24974754882071</v>
+        <v>19.9660725253745</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13621534979612</v>
+        <v>10.38833584224439</v>
       </c>
       <c r="C10">
-        <v>10.21717734169469</v>
+        <v>6.429270536061373</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.03916509530585</v>
+        <v>20.04851775807566</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.064808941689125</v>
+        <v>3.617647662163285</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.47974511643944</v>
+        <v>18.84912893668472</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.33577830531275</v>
+        <v>9.782293049858017</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.05026645434367</v>
+        <v>19.78757766658847</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71520595457859</v>
+        <v>10.65493563755278</v>
       </c>
       <c r="C11">
-        <v>10.54280027473699</v>
+        <v>6.587895651262188</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.51338362036895</v>
+        <v>20.74976392243781</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.060893533907322</v>
+        <v>3.616444557003139</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.26242485399926</v>
+        <v>18.76323504159377</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.81907271054679</v>
+        <v>10.02363941806552</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.98820712107133</v>
+        <v>19.71217752627082</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93012601007398</v>
+        <v>10.75420034728232</v>
       </c>
       <c r="C12">
-        <v>10.66402492362013</v>
+        <v>6.646843631884232</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.06414728217391</v>
+        <v>21.00928647850574</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.059416746088059</v>
+        <v>3.615997086368533</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.18281239436321</v>
+        <v>18.73138631635941</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.99876912668889</v>
+        <v>10.11331143358337</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.9692823717131</v>
+        <v>19.6844638306591</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88403094055471</v>
+        <v>10.73289804559506</v>
       </c>
       <c r="C13">
-        <v>10.63800912778711</v>
+        <v>6.634198273173553</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>38.94585564176179</v>
+        <v>20.95366105601867</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.059734559214713</v>
+        <v>3.616093096765004</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.19983355249962</v>
+        <v>18.7382153732423</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.96021538161925</v>
+        <v>10.09407599118148</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.97314719761456</v>
+        <v>19.69039508916771</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.7329740669833</v>
+        <v>10.66313642868809</v>
       </c>
       <c r="C14">
-        <v>10.55281504878231</v>
+        <v>6.592767903387184</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.558842547831</v>
+        <v>20.77123554432626</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.060771927651313</v>
+        <v>3.616407580853389</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.25581936768954</v>
+        <v>18.76060124859814</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.8339227671613</v>
+        <v>10.03105145589107</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.98655579222952</v>
+        <v>19.70988066621342</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63988483282102</v>
+        <v>10.62018346902044</v>
       </c>
       <c r="C15">
-        <v>10.50036099087338</v>
+        <v>6.567244125228866</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.32082505558533</v>
+        <v>20.65871110295658</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.061408071573792</v>
+        <v>3.616601267504398</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.29047169086598</v>
+        <v>18.77440147776093</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.75613371048864</v>
+        <v>9.992222075302886</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.99537866228794</v>
+        <v>19.72192551758222</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.09776818436601</v>
+        <v>10.3706796135816</v>
       </c>
       <c r="C16">
-        <v>10.19560429313911</v>
+        <v>6.418748494480959</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>36.94174660865333</v>
+        <v>20.00184489129205</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.06506572232322</v>
+        <v>3.617727426445359</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.49430478764076</v>
+        <v>18.85483707836016</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.30372848091984</v>
+        <v>9.766281527654186</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.05493734823656</v>
+        <v>19.79262233466566</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.75743108908709</v>
+        <v>10.21467166118924</v>
       </c>
       <c r="C17">
-        <v>10.00490951319255</v>
+        <v>6.325680568370218</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.08186863040442</v>
+        <v>19.58811380685736</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.067321522860257</v>
+        <v>3.618432796345249</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.62378066217149</v>
+        <v>18.90538787052482</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.02026148410594</v>
+        <v>9.624645922842806</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.09913414961725</v>
+        <v>19.83748104161737</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.55880978560555</v>
+        <v>10.12387894832769</v>
       </c>
       <c r="C18">
-        <v>9.893846582792488</v>
+        <v>6.271433949971196</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.58204916153984</v>
+        <v>19.34617995313448</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.068623809028098</v>
+        <v>3.61884385207346</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.6997848881005</v>
+        <v>18.9349064955489</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85503371169373</v>
+        <v>9.542079714864235</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.12722630128298</v>
+        <v>19.86382802021258</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.49106609807086</v>
+        <v>10.09295800233368</v>
       </c>
       <c r="C19">
-        <v>9.856004931362838</v>
+        <v>6.252944720433098</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.41190534826737</v>
+        <v>19.26358301896838</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.069065604983367</v>
+        <v>3.618983947929491</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.72577351923799</v>
+        <v>18.9449770963282</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.79871475913435</v>
+        <v>9.513936278957246</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.1371833167278</v>
+        <v>19.87284218537473</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.79395711423091</v>
+        <v>10.2313892925261</v>
       </c>
       <c r="C20">
-        <v>10.02535201357336</v>
+        <v>6.335662137700796</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.17394323325264</v>
+        <v>19.63256648387626</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.067080900462166</v>
+        <v>3.618357155580062</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.60983702475028</v>
+        <v>18.89996078606945</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.05066307509792</v>
+        <v>9.639837517781105</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.09414967024809</v>
+        <v>19.83264926957299</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.77746027136524</v>
+        <v>10.68367346396726</v>
       </c>
       <c r="C21">
-        <v>10.57789487342029</v>
+        <v>6.60496757048087</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.67271699685497</v>
+        <v>20.82498157138991</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.060467078691749</v>
+        <v>3.616314989247145</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.23929944620953</v>
+        <v>18.75400758562725</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.87110777859881</v>
+        <v>10.04961024180947</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.98248945840522</v>
+        <v>19.70413447768207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39501830557549</v>
+        <v>10.96938840715394</v>
       </c>
       <c r="C22">
-        <v>10.92689769142542</v>
+        <v>6.774438243346184</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.26240208414713</v>
+        <v>21.56919554463871</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.056178194336728</v>
+        <v>3.615027620225712</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.01295155697749</v>
+        <v>18.66256755941621</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.38800017119173</v>
+        <v>10.3073788065625</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.93641069473992</v>
+        <v>19.62503361719232</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06770615329447</v>
+        <v>10.81781982483646</v>
       </c>
       <c r="C23">
-        <v>10.74172655620817</v>
+        <v>6.684593429215166</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.41776098629555</v>
+        <v>21.17519520540486</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.058464648274958</v>
+        <v>3.615710399260381</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.13219279831818</v>
+        <v>18.71100935221994</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.11388329006852</v>
+        <v>10.17073197537198</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.9583872731188</v>
+        <v>19.66680203968078</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.77745291197045</v>
+        <v>10.22383467779616</v>
       </c>
       <c r="C24">
-        <v>10.01611441486167</v>
+        <v>6.331151775328523</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.13233335969043</v>
+        <v>19.612482122342</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.067189668941841</v>
+        <v>3.618391335543194</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.61613608534142</v>
+        <v>18.90241294955143</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.03692555280933</v>
+        <v>9.632972939661341</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.09639483083428</v>
+        <v>19.83483197863123</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.27592295008272</v>
+        <v>9.542916656756498</v>
       </c>
       <c r="C25">
-        <v>9.18063733756768</v>
+        <v>5.922651164212396</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.38660577214904</v>
+        <v>17.77505001906952</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.076789209126116</v>
+        <v>3.621487719205401</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.19599463702097</v>
+        <v>19.12581507447137</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.79173985282778</v>
+        <v>9.057709106438953</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.34580433027702</v>
+        <v>20.0369140930773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.009879765497161</v>
+        <v>14.07447657663715</v>
       </c>
       <c r="C2">
-        <v>5.599489441753191</v>
+        <v>8.519597743245983</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.47399902757701</v>
+        <v>29.439404731748</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.623945550992193</v>
+        <v>2.084063598664791</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.30489788898617</v>
+        <v>11.66405563682605</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.671611005735192</v>
+        <v>12.8028816906003</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.20347284556664</v>
+        <v>12.60076494459783</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.630761302971296</v>
+        <v>13.19999391590261</v>
       </c>
       <c r="C3">
-        <v>5.367221005072948</v>
+        <v>8.043075915477573</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.54225315833312</v>
+        <v>27.31710627372277</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.625723298481784</v>
+        <v>2.089141841698657</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.43538010381587</v>
+        <v>12.00370168551555</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.401180415057457</v>
+        <v>12.08812482709063</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.3273605825577</v>
+        <v>12.81126369474902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.389943824977188</v>
+        <v>12.63329905901852</v>
       </c>
       <c r="C4">
-        <v>5.218364348879858</v>
+        <v>7.73656634723861</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.94538028204554</v>
+        <v>25.95029878409088</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.626870449567402</v>
+        <v>2.092338928487028</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.51999790817245</v>
+        <v>12.22249269011179</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.231417972037269</v>
+        <v>11.627537040914</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.4088348157008</v>
+        <v>12.9571036063571</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.289923342536975</v>
+        <v>12.3948927987952</v>
       </c>
       <c r="C5">
-        <v>5.156186789485888</v>
+        <v>7.608198201863528</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.69618924354749</v>
+        <v>25.37700742520041</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.627351952571535</v>
+        <v>2.093662440725215</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.5556127403363</v>
+        <v>12.314126288362</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.161404318877347</v>
+        <v>11.43444432936382</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.44339219217695</v>
+        <v>13.02043301415108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.27320545228028</v>
+        <v>12.35485481156096</v>
       </c>
       <c r="C6">
-        <v>5.14577229873687</v>
+        <v>7.586675023794095</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.65446019445285</v>
+        <v>25.28081989751295</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.627432754508902</v>
+        <v>2.093883480078147</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.56159496663507</v>
+        <v>12.32948876511283</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.149731322719607</v>
+        <v>11.40205759142181</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.4492122123913</v>
+        <v>13.03117670587833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.388602355638607</v>
+        <v>12.6301140655018</v>
       </c>
       <c r="C7">
-        <v>5.217531868915247</v>
+        <v>7.734849089770206</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.94204334288634</v>
+        <v>25.94263356742636</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.626876886417826</v>
+        <v>2.092356693103931</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.520473636535</v>
+        <v>12.22371859632372</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.230476981895206</v>
+        <v>11.62495468802794</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.40929538302825</v>
+        <v>12.95794224920976</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.880903882887999</v>
+        <v>13.77913275046666</v>
       </c>
       <c r="C8">
-        <v>5.520728256488041</v>
+        <v>8.358201065184904</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.15802185921916</v>
+        <v>28.72068113455065</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.624547005352831</v>
+        <v>2.085798674154936</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.34895423884792</v>
+        <v>11.77897174093855</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.579195884674409</v>
+        <v>12.56097387827979</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.24506500546945</v>
+        <v>12.66972892280045</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.777424417304136</v>
+        <v>15.79652808758501</v>
       </c>
       <c r="C9">
-        <v>6.063812892722454</v>
+        <v>9.469183283222458</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.41440043739083</v>
+        <v>33.67677690910141</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.620417186630857</v>
+        <v>2.073526331271266</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.04829641018113</v>
+        <v>10.99378241788346</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.229526057623017</v>
+        <v>14.22238311326585</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.9660725253745</v>
+        <v>12.24974754882073</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.38833584224439</v>
+        <v>17.13621534979608</v>
       </c>
       <c r="C10">
-        <v>6.429270536061373</v>
+        <v>10.21717734169464</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.04851775807566</v>
+        <v>37.03916509530581</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.617647662163285</v>
+        <v>2.064808941689126</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.84912893668472</v>
+        <v>10.47974511643943</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.782293049858017</v>
+        <v>15.33577830531271</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.78757766658847</v>
+        <v>12.05026645434365</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.65493563755278</v>
+        <v>17.71520595457859</v>
       </c>
       <c r="C11">
-        <v>6.587895651262188</v>
+        <v>10.54280027473701</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.74976392243781</v>
+        <v>38.51338362036902</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.616444557003139</v>
+        <v>2.060893533907189</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.76323504159377</v>
+        <v>10.26242485399928</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.02363941806552</v>
+        <v>15.81907271054681</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.71217752627082</v>
+        <v>11.98820712107133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.75420034728232</v>
+        <v>17.93012601007394</v>
       </c>
       <c r="C12">
-        <v>6.646843631884232</v>
+        <v>10.66402492362017</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.00928647850574</v>
+        <v>39.06414728217386</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.615997086368533</v>
+        <v>2.059416746087789</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.73138631635941</v>
+        <v>10.18281239436332</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.11331143358337</v>
+        <v>15.99876912668884</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.6844638306591</v>
+        <v>11.96928237171322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.73289804559506</v>
+        <v>17.88403094055475</v>
       </c>
       <c r="C13">
-        <v>6.634198273173553</v>
+        <v>10.63800912778701</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.95366105601867</v>
+        <v>38.94585564176194</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.616093096765004</v>
+        <v>2.059734559214581</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.7382153732423</v>
+        <v>10.19983355249963</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.09407599118148</v>
+        <v>15.96021538161927</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.69039508916771</v>
+        <v>11.97314719761462</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.66313642868809</v>
+        <v>17.73297406698338</v>
       </c>
       <c r="C14">
-        <v>6.592767903387184</v>
+        <v>10.55281504878233</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.77123554432626</v>
+        <v>38.55884254783106</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.616407580853389</v>
+        <v>2.060771927651046</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.76060124859814</v>
+        <v>10.25581936768945</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.03105145589107</v>
+        <v>15.83392276716132</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.70988066621342</v>
+        <v>11.98655579222945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.62018346902044</v>
+        <v>17.63988483282104</v>
       </c>
       <c r="C15">
-        <v>6.567244125228866</v>
+        <v>10.50036099087335</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.65871110295658</v>
+        <v>38.32082505558538</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.616601267504398</v>
+        <v>2.061408071573791</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.77440147776093</v>
+        <v>10.29047169086604</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.992222075302886</v>
+        <v>15.75613371048864</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.72192551758222</v>
+        <v>11.99537866228797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.3706796135816</v>
+        <v>17.09776818436603</v>
       </c>
       <c r="C16">
-        <v>6.418748494480959</v>
+        <v>10.19560429313912</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.00184489129205</v>
+        <v>36.94174660865333</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.617727426445359</v>
+        <v>2.06506572232322</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.85483707836016</v>
+        <v>10.49430478764078</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.766281527654186</v>
+        <v>15.30372848091983</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.79262233466566</v>
+        <v>12.05493734823658</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.21467166118924</v>
+        <v>16.75743108908712</v>
       </c>
       <c r="C17">
-        <v>6.325680568370218</v>
+        <v>10.00490951319252</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.58811380685736</v>
+        <v>36.08186863040441</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.618432796345249</v>
+        <v>2.067321522860392</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.90538787052482</v>
+        <v>10.62378066217152</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.624645922842806</v>
+        <v>15.02026148410595</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.83748104161737</v>
+        <v>12.09913414961728</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.12387894832769</v>
+        <v>16.55880978560555</v>
       </c>
       <c r="C18">
-        <v>6.271433949971196</v>
+        <v>9.893846582792326</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.34617995313448</v>
+        <v>35.58204916153979</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.61884385207346</v>
+        <v>2.068623809027831</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.9349064955489</v>
+        <v>10.69978488810064</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.542079714864235</v>
+        <v>14.85503371169367</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.86382802021258</v>
+        <v>12.12722630128315</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.09295800233368</v>
+        <v>16.49106609807087</v>
       </c>
       <c r="C19">
-        <v>6.252944720433098</v>
+        <v>9.856004931362907</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.26358301896838</v>
+        <v>35.41190534826745</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.618983947929491</v>
+        <v>2.069065604983366</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.9449770963282</v>
+        <v>10.72577351923786</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.513936278957246</v>
+        <v>14.79871475913438</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.87284218537473</v>
+        <v>12.13718331672768</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.2313892925261</v>
+        <v>16.79395711423088</v>
       </c>
       <c r="C20">
-        <v>6.335662137700796</v>
+        <v>10.02535201357348</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.63256648387626</v>
+        <v>36.17394323325265</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.618357155580062</v>
+        <v>2.067080900462569</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.89996078606945</v>
+        <v>10.60983702475029</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.639837517781105</v>
+        <v>15.05066307509792</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.83264926957299</v>
+        <v>12.09414967024804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.68367346396726</v>
+        <v>17.77746027136525</v>
       </c>
       <c r="C21">
-        <v>6.60496757048087</v>
+        <v>10.57789487342018</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.82498157138991</v>
+        <v>38.67271699685498</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.616314989247145</v>
+        <v>2.060467078691615</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.75400758562725</v>
+        <v>10.23929944620963</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.04961024180947</v>
+        <v>15.87110777859878</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.70413447768207</v>
+        <v>11.9824894584053</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.96938840715394</v>
+        <v>18.39501830557551</v>
       </c>
       <c r="C22">
-        <v>6.774438243346184</v>
+        <v>10.92689769142524</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.56919554463871</v>
+        <v>40.26240208414716</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.615027620225712</v>
+        <v>2.056178194336593</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.66256755941621</v>
+        <v>10.01295155697747</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.3073788065625</v>
+        <v>16.3880001711917</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.62503361719232</v>
+        <v>11.93641069473995</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.81781982483646</v>
+        <v>18.06770615329447</v>
       </c>
       <c r="C23">
-        <v>6.684593429215166</v>
+        <v>10.7417265562082</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.17519520540486</v>
+        <v>39.41776098629563</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.615710399260381</v>
+        <v>2.058464648274558</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.71100935221994</v>
+        <v>10.13219279831812</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.17073197537198</v>
+        <v>16.1138832900685</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.66680203968078</v>
+        <v>11.95838727311877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.22383467779616</v>
+        <v>16.7774529119704</v>
       </c>
       <c r="C24">
-        <v>6.331151775328523</v>
+        <v>10.01611441486175</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.612482122342</v>
+        <v>36.13233335969051</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.618391335543194</v>
+        <v>2.067189668941841</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.90241294955143</v>
+        <v>10.61613608534143</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.632972939661341</v>
+        <v>15.03692555280934</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.83483197863123</v>
+        <v>12.09639483083427</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.542916656756498</v>
+        <v>15.2759229500828</v>
       </c>
       <c r="C25">
-        <v>5.922651164212396</v>
+        <v>9.1806373375675</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.77505001906952</v>
+        <v>32.3866057721491</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.621487719205401</v>
+        <v>2.076789209125982</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.12581507447137</v>
+        <v>11.19599463702088</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.057709106438953</v>
+        <v>13.79173985282781</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.0369140930773</v>
+        <v>12.34580433027702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07447657663715</v>
+        <v>12.98044109840555</v>
       </c>
       <c r="C2">
-        <v>8.519597743245983</v>
+        <v>8.601927335279358</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.439404731748</v>
+        <v>8.460307536539274</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.084063598664791</v>
+        <v>19.6366235944659</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.833161115855125</v>
       </c>
       <c r="I2">
-        <v>11.66405563682605</v>
+        <v>3.473092834229997</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.91917282885834</v>
       </c>
       <c r="K2">
-        <v>12.8028816906003</v>
+        <v>14.8797646665542</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.23171808185516</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.425107525564208</v>
       </c>
       <c r="O2">
-        <v>12.60076494459783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.516278434127264</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.00089437413203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.19999391590261</v>
+        <v>12.16047186773783</v>
       </c>
       <c r="C3">
-        <v>8.043075915477573</v>
+        <v>8.493480049023566</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.31710627372277</v>
+        <v>8.354368226153888</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.089141841698657</v>
+        <v>19.85810960339302</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.985777466274063</v>
       </c>
       <c r="I3">
-        <v>12.00370168551555</v>
+        <v>3.592153643452858</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.015926871701261</v>
       </c>
       <c r="K3">
-        <v>12.08812482709063</v>
+        <v>15.06594647525249</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.70038379419518</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.27431462677997</v>
       </c>
       <c r="O3">
-        <v>12.81126369474902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.120229111783146</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.16828375985682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63329905901852</v>
+        <v>11.62601252823742</v>
       </c>
       <c r="C4">
-        <v>7.73656634723861</v>
+        <v>8.426532861894062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.95029878409088</v>
+        <v>8.287758979793985</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.092338928487028</v>
+        <v>20.00454702075413</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.0829923651698</v>
       </c>
       <c r="I4">
-        <v>12.22249269011179</v>
+        <v>3.66870235730494</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.077489257249189</v>
       </c>
       <c r="K4">
-        <v>11.627537040914</v>
+        <v>15.18354285226122</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.35995635153859</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.18015272439992</v>
       </c>
       <c r="O4">
-        <v>12.9571036063571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.868146251322699</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.27573793278203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3948927987952</v>
+        <v>11.39816961312623</v>
       </c>
       <c r="C5">
-        <v>7.608198201863528</v>
+        <v>8.401767758744141</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.37700742520041</v>
+        <v>8.258322674519553</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.093662440725215</v>
+        <v>20.05716122064065</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.123774073255711</v>
       </c>
       <c r="I5">
-        <v>12.314126288362</v>
+        <v>3.703299521566696</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.101596141143725</v>
       </c>
       <c r="K5">
-        <v>11.43444432936382</v>
+        <v>15.22868439356634</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.21933788633706</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.141898971357931</v>
       </c>
       <c r="O5">
-        <v>13.02043301415108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.76303081302283</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.3168733404111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35485481156096</v>
+        <v>11.35710077551263</v>
       </c>
       <c r="C6">
-        <v>7.586675023794095</v>
+        <v>8.400873977197586</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.28081989751295</v>
+        <v>8.251073987926992</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.093883480078147</v>
+        <v>20.05434718492438</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.130934322867833</v>
       </c>
       <c r="I6">
-        <v>12.32948876511283</v>
+        <v>3.71234108030779</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.103775270567601</v>
       </c>
       <c r="K6">
-        <v>11.40205759142181</v>
+        <v>15.23183278419814</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.19770040271013</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.136112848971296</v>
       </c>
       <c r="O6">
-        <v>13.03117670587833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.745126103862752</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.31912378440444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.6301140655018</v>
+        <v>11.61559359198742</v>
       </c>
       <c r="C7">
-        <v>7.734849089770206</v>
+        <v>8.43503222688207</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.94263356742636</v>
+        <v>8.281031012257744</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.092356693103931</v>
+        <v>19.97327360989348</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.084432163637657</v>
       </c>
       <c r="I7">
-        <v>12.22371859632372</v>
+        <v>3.67772719727942</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.072760081171593</v>
       </c>
       <c r="K7">
-        <v>11.62495468802794</v>
+        <v>15.17216986633883</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.36324758108066</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.181236292857244</v>
       </c>
       <c r="O7">
-        <v>12.95794224920976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.865856309592852</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.2636080002448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77913275046666</v>
+        <v>12.69512971984797</v>
       </c>
       <c r="C8">
-        <v>8.358201065184904</v>
+        <v>8.576482242728698</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.72068113455065</v>
+        <v>8.415978379191563</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.085798674154936</v>
+        <v>19.6684272144319</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.886157800599616</v>
       </c>
       <c r="I8">
-        <v>11.77897174093855</v>
+        <v>3.524248397559614</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.945477937265682</v>
       </c>
       <c r="K8">
-        <v>12.56097387827979</v>
+        <v>14.92759604087341</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.05807684748117</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.375555193357176</v>
       </c>
       <c r="O8">
-        <v>12.66972892280045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.380510746601853</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.04093212642895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.79652808758501</v>
+        <v>14.57794299757363</v>
       </c>
       <c r="C9">
-        <v>9.469183283222458</v>
+        <v>8.835133008174331</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.67677690910141</v>
+        <v>8.678528551190064</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.073526331271266</v>
+        <v>19.21595008655235</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.523294055696372</v>
       </c>
       <c r="I9">
-        <v>10.99378241788346</v>
+        <v>3.236392779797863</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.721992704789191</v>
       </c>
       <c r="K9">
-        <v>14.22238311326585</v>
+        <v>14.49510076988149</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.29545384049431</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.73984032840947</v>
       </c>
       <c r="O9">
-        <v>12.24974754882073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.31623183108472</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.66500598795587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13621534979608</v>
+        <v>15.80118892173027</v>
       </c>
       <c r="C10">
-        <v>10.21717734169464</v>
+        <v>9.060242619529614</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.03916509530581</v>
+        <v>8.749793111568724</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.064808941689126</v>
+        <v>18.7741722547578</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.300902733544503</v>
       </c>
       <c r="I10">
-        <v>10.47974511643943</v>
+        <v>3.050329887204998</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.54278241773128</v>
       </c>
       <c r="K10">
-        <v>15.33577830531271</v>
+        <v>14.13613574542824</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.15303164302575</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.898112113813943</v>
       </c>
       <c r="O10">
-        <v>12.05026645434365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.87665627533593</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.34743427010408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71520595457859</v>
+        <v>16.25207500192899</v>
       </c>
       <c r="C11">
-        <v>10.54280027473701</v>
+        <v>9.500833616971695</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.51338362036902</v>
+        <v>7.974751952496893</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.060893533907189</v>
+        <v>17.24170937760946</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.157588266802295</v>
       </c>
       <c r="I11">
-        <v>10.26242485399928</v>
+        <v>3.017880188280148</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.263076340465428</v>
       </c>
       <c r="K11">
-        <v>15.81907271054681</v>
+        <v>13.55740453061987</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.71987422973298</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.156858207982937</v>
       </c>
       <c r="O11">
-        <v>11.98820712107133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.46527443182123</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.69000441541936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93012601007394</v>
+        <v>16.39401048422812</v>
       </c>
       <c r="C12">
-        <v>10.66402492362017</v>
+        <v>9.864089241680185</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.06414728217386</v>
+        <v>7.557397561316346</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.059416746087789</v>
+        <v>16.15449342925981</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.430903978277054</v>
       </c>
       <c r="I12">
-        <v>10.18281239436332</v>
+        <v>3.009313939890151</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.083004415285032</v>
       </c>
       <c r="K12">
-        <v>15.99876912668884</v>
+        <v>13.21854267088772</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.02126489377587</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.572699176318112</v>
       </c>
       <c r="O12">
-        <v>11.96928237171322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.99720460739705</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.25029634565744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88403094055475</v>
+        <v>16.30306258984401</v>
       </c>
       <c r="C13">
-        <v>10.63800912778701</v>
+        <v>10.19749938776576</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>38.94585564176194</v>
+        <v>7.414551630072625</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.059734559214581</v>
+        <v>15.32076241035097</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.793340838938937</v>
       </c>
       <c r="I13">
-        <v>10.19983355249963</v>
+        <v>3.032953449935242</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.962195581735436</v>
       </c>
       <c r="K13">
-        <v>15.96021538161927</v>
+        <v>13.02946346748688</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.15035325592968</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.098786907225512</v>
       </c>
       <c r="O13">
-        <v>11.97314719761462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.445707973484001</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.93808552559854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.73297406698338</v>
+        <v>16.13115780231058</v>
       </c>
       <c r="C14">
-        <v>10.55281504878233</v>
+        <v>10.42575957569898</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.55884254783106</v>
+        <v>7.483754200961585</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.060771927651046</v>
+        <v>14.87846677347578</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.773036653923178</v>
       </c>
       <c r="I14">
-        <v>10.25581936768945</v>
+        <v>3.066702748256316</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.906186661222265</v>
       </c>
       <c r="K14">
-        <v>15.83392276716132</v>
+        <v>12.9734759195141</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.16573627812507</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.85006625168493</v>
       </c>
       <c r="O14">
-        <v>11.98655579222945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.016872366103962</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.78408821750601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63988483282104</v>
+        <v>16.036329141567</v>
       </c>
       <c r="C15">
-        <v>10.50036099087335</v>
+        <v>10.47484323636674</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.32082505558538</v>
+        <v>7.522103706463729</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>2.061408071573791</v>
+        <v>14.81206508481217</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.002386761796656</v>
       </c>
       <c r="I15">
-        <v>10.29047169086604</v>
+        <v>3.086500645894806</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.902764609705875</v>
       </c>
       <c r="K15">
-        <v>15.75613371048864</v>
+        <v>12.98289997496896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.13386354742266</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.803161835894131</v>
       </c>
       <c r="O15">
-        <v>11.99537866228797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.894054317441901</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.76772285275351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.09776818436603</v>
+        <v>15.54589277162165</v>
       </c>
       <c r="C16">
-        <v>10.19560429313912</v>
+        <v>10.31679597343342</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>36.94174660865333</v>
+        <v>7.506821191580683</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>2.06506572232322</v>
+        <v>15.18048479692974</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.809842493346731</v>
       </c>
       <c r="I16">
-        <v>10.49430478764078</v>
+        <v>3.167288429169869</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.001680449154859</v>
       </c>
       <c r="K16">
-        <v>15.30372848091983</v>
+        <v>13.16768532891018</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.76534116566861</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.821315533040612</v>
       </c>
       <c r="O16">
-        <v>12.05493734823658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.742315220438082</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.9660593813923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.75743108908712</v>
+        <v>15.25681154098212</v>
       </c>
       <c r="C17">
-        <v>10.00490951319252</v>
+        <v>10.06846869288044</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.08186863040441</v>
+        <v>7.432501135242618</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.067321522860392</v>
+        <v>15.6762051421713</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.111865300218464</v>
       </c>
       <c r="I17">
-        <v>10.62378066217152</v>
+        <v>3.212033920927365</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.105867346935</v>
       </c>
       <c r="K17">
-        <v>15.02026148410595</v>
+        <v>13.33390530125017</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.46864409628218</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.952562664622926</v>
       </c>
       <c r="O17">
-        <v>12.09913414961728</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.860445882384802</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.19427253973001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.55880978560555</v>
+        <v>15.12132221215595</v>
       </c>
       <c r="C18">
-        <v>9.893846582792326</v>
+        <v>9.721797934307434</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.58204916153979</v>
+        <v>7.448113717732975</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.068623809027831</v>
+        <v>16.41441975596685</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.940105104148785</v>
       </c>
       <c r="I18">
-        <v>10.69978488810064</v>
+        <v>3.219088758104714</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.236028443214467</v>
       </c>
       <c r="K18">
-        <v>14.85503371169367</v>
+        <v>13.5393849301258</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.20201051393314</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.273003356221007</v>
       </c>
       <c r="O18">
-        <v>12.12722630128315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.226824141331404</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.50138949657384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.49106609807087</v>
+        <v>15.11146220427407</v>
       </c>
       <c r="C19">
-        <v>9.856004931362907</v>
+        <v>9.383755471602544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.41190534826745</v>
+        <v>7.74743725743904</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.069065604983366</v>
+        <v>17.33632902303441</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.608374036617216</v>
       </c>
       <c r="I19">
-        <v>10.72577351923786</v>
+        <v>3.210485078070649</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.381533293547697</v>
       </c>
       <c r="K19">
-        <v>14.79871475913438</v>
+        <v>13.79703378721351</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.99383889922729</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.815008492412248</v>
       </c>
       <c r="O19">
-        <v>12.13718331672768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.761263282431317</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.86380077350091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.79395711423088</v>
+        <v>15.47180039641997</v>
       </c>
       <c r="C20">
-        <v>10.02535201357348</v>
+        <v>9.032095698177125</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.17394323325265</v>
+        <v>8.708973518212058</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.067080900462569</v>
+        <v>18.78024430562445</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.360172879468534</v>
       </c>
       <c r="I20">
-        <v>10.60983702475029</v>
+        <v>3.126794437385338</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.572992831427309</v>
       </c>
       <c r="K20">
-        <v>15.05066307509792</v>
+        <v>14.19149666736344</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.94801680199071</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.857131729897499</v>
       </c>
       <c r="O20">
-        <v>12.09414967024804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.72675976545684</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.38782137989351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.77746027136525</v>
+        <v>16.38032836876272</v>
       </c>
       <c r="C21">
-        <v>10.57789487342018</v>
+        <v>9.148878819468397</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.67271699685498</v>
+        <v>8.935703387409042</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.060467078691615</v>
+        <v>18.72341195814851</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.152252901693129</v>
       </c>
       <c r="I21">
-        <v>10.23929944620963</v>
+        <v>2.977161568526959</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.478228725481769</v>
       </c>
       <c r="K21">
-        <v>15.87110777859878</v>
+        <v>14.00785643643001</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.54462272053095</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.128884366072731</v>
       </c>
       <c r="O21">
-        <v>11.9824894584053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.25869782153623</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.25382184622882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39501830557551</v>
+        <v>16.94990209290694</v>
       </c>
       <c r="C22">
-        <v>10.92689769142524</v>
+        <v>9.229576389825473</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.26240208414716</v>
+        <v>9.032884406965383</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.056178194336593</v>
+        <v>18.66297774367568</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.031507299326234</v>
       </c>
       <c r="I22">
-        <v>10.01295155697747</v>
+        <v>2.872543988455275</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.412838668409357</v>
       </c>
       <c r="K22">
-        <v>16.3880001711917</v>
+        <v>13.87993103139688</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.92581331356933</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.250926008743639</v>
       </c>
       <c r="O22">
-        <v>11.93641069473995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.55786768426151</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.157209960412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.06770615329447</v>
+        <v>16.6546829131686</v>
       </c>
       <c r="C23">
-        <v>10.7417265562082</v>
+        <v>9.175524324417308</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.41776098629563</v>
+        <v>8.987723956032232</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.058464648274558</v>
+        <v>18.73161186884973</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.094933028859558</v>
       </c>
       <c r="I23">
-        <v>10.13219279831812</v>
+        <v>2.916880131345454</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.453298124154077</v>
       </c>
       <c r="K23">
-        <v>16.1138832900685</v>
+        <v>13.96159169162603</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.71869453356518</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.184250955793008</v>
       </c>
       <c r="O23">
-        <v>11.95838727311877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.4000168253029</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.22306012101639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.7774529119704</v>
+        <v>15.47306107044348</v>
       </c>
       <c r="C24">
-        <v>10.01611441486175</v>
+        <v>8.987587820894474</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.13233335969051</v>
+        <v>8.803149731407611</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.067189668941841</v>
+        <v>18.96113384748876</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.34177364531996</v>
       </c>
       <c r="I24">
-        <v>10.61613608534143</v>
+        <v>3.108429832993314</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.601764542134777</v>
       </c>
       <c r="K24">
-        <v>15.03692555280934</v>
+        <v>14.25563673553905</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.91285389436026</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.929742985693406</v>
       </c>
       <c r="O24">
-        <v>12.09639483083427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.78033706868879</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.46007640073812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.2759229500828</v>
+        <v>14.08375239363913</v>
       </c>
       <c r="C25">
-        <v>9.1806373375675</v>
+        <v>8.782012897069041</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.3866057721491</v>
+        <v>8.598300054772906</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.076789209125982</v>
+        <v>19.27037122996488</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.619947768531951</v>
       </c>
       <c r="I25">
-        <v>11.19599463702088</v>
+        <v>3.326859540035576</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.771682753058222</v>
       </c>
       <c r="K25">
-        <v>13.79173985282781</v>
+        <v>14.58819480802449</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.982087977953</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.64578775836921</v>
       </c>
       <c r="O25">
-        <v>12.34580433027702</v>
+        <v>10.07021695538624</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.73976966627205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.98044109840555</v>
+        <v>13.01360166931326</v>
       </c>
       <c r="C2">
-        <v>8.601927335279358</v>
+        <v>8.203503438500261</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.460307536539274</v>
+        <v>8.370138773099423</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>19.6366235944659</v>
+        <v>18.45123612130479</v>
       </c>
       <c r="H2">
-        <v>2.833161115855125</v>
+        <v>2.70879757195842</v>
       </c>
       <c r="I2">
-        <v>3.473092834229997</v>
+        <v>3.315530583229492</v>
       </c>
       <c r="J2">
-        <v>8.91917282885834</v>
+        <v>9.04668254038204</v>
       </c>
       <c r="K2">
-        <v>14.8797646665542</v>
+        <v>14.41271558902751</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.6283901057163</v>
       </c>
       <c r="M2">
-        <v>11.23171808185516</v>
+        <v>9.623191393715226</v>
       </c>
       <c r="N2">
-        <v>6.425107525564208</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.516278434127264</v>
+        <v>11.28851757855623</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.547566486622772</v>
       </c>
       <c r="Q2">
-        <v>14.00089437413203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.493422234774277</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.66549373004915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.16047186773783</v>
+        <v>12.21601826620517</v>
       </c>
       <c r="C3">
-        <v>8.493480049023566</v>
+        <v>8.047937918408948</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.354368226153888</v>
+        <v>8.278842242112386</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>19.85810960339302</v>
+        <v>18.75180478852056</v>
       </c>
       <c r="H3">
-        <v>2.985777466274063</v>
+        <v>2.851426043377123</v>
       </c>
       <c r="I3">
-        <v>3.592153643452858</v>
+        <v>3.421762096708846</v>
       </c>
       <c r="J3">
-        <v>9.015926871701261</v>
+        <v>9.116556968828998</v>
       </c>
       <c r="K3">
-        <v>15.06594647525249</v>
+        <v>14.60200505617973</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.80448287375529</v>
       </c>
       <c r="M3">
-        <v>10.70038379419518</v>
+        <v>9.778771591275452</v>
       </c>
       <c r="N3">
-        <v>6.27431462677997</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.120229111783146</v>
+        <v>10.74866570438513</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.401845398686742</v>
       </c>
       <c r="Q3">
-        <v>14.16828375985682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.096385291952254</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.84224527304067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.62601252823742</v>
+        <v>11.69654552091468</v>
       </c>
       <c r="C4">
-        <v>8.426532861894062</v>
+        <v>7.952285974401367</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.287758979793985</v>
+        <v>8.221301045708319</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.00454702075413</v>
+        <v>18.94671014608864</v>
       </c>
       <c r="H4">
-        <v>3.0829923651698</v>
+        <v>2.942299510039658</v>
       </c>
       <c r="I4">
-        <v>3.66870235730494</v>
+        <v>3.490343611278774</v>
       </c>
       <c r="J4">
-        <v>9.077489257249189</v>
+        <v>9.160562739203908</v>
       </c>
       <c r="K4">
-        <v>15.18354285226122</v>
+        <v>14.72085755463211</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.91803464186575</v>
       </c>
       <c r="M4">
-        <v>10.35995635153859</v>
+        <v>9.887199575791502</v>
       </c>
       <c r="N4">
-        <v>6.18015272439992</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.868146251322699</v>
+        <v>10.4029715469486</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.311187362215918</v>
       </c>
       <c r="Q4">
-        <v>14.27573793278203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.843461633101054</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.95462497506853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.39816961312623</v>
+        <v>11.47520393171627</v>
       </c>
       <c r="C5">
-        <v>8.401767758744141</v>
+        <v>7.916262370701153</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.258322674519553</v>
+        <v>8.195636806562488</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>20.05716122064065</v>
+        <v>19.01923126488039</v>
       </c>
       <c r="H5">
-        <v>3.123774073255711</v>
+        <v>2.98043827814252</v>
       </c>
       <c r="I5">
-        <v>3.703299521566696</v>
+        <v>3.522114228609142</v>
       </c>
       <c r="J5">
-        <v>9.101596141143725</v>
+        <v>9.177249332793687</v>
       </c>
       <c r="K5">
-        <v>15.22868439356634</v>
+        <v>14.7664889533079</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.96171569473497</v>
       </c>
       <c r="M5">
-        <v>10.21933788633706</v>
+        <v>9.933337948889234</v>
       </c>
       <c r="N5">
-        <v>6.141898971357931</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.76303081302283</v>
+        <v>10.2601733245699</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.27443443442505</v>
       </c>
       <c r="Q5">
-        <v>14.3168733404111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.737949504532144</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.99767465536664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.35710077551263</v>
+        <v>11.43531646809527</v>
       </c>
       <c r="C6">
-        <v>8.400873977197586</v>
+        <v>7.91395304410748</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.251073987926992</v>
+        <v>8.189090750632523</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>20.05434718492438</v>
+        <v>19.01995491276482</v>
       </c>
       <c r="H6">
-        <v>3.130934322867833</v>
+        <v>2.987149959394166</v>
       </c>
       <c r="I6">
-        <v>3.71234108030779</v>
+        <v>3.531269010351961</v>
       </c>
       <c r="J6">
-        <v>9.103775270567601</v>
+        <v>9.178175378197601</v>
       </c>
       <c r="K6">
-        <v>15.23183278419814</v>
+        <v>14.76987899441849</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.96424567363608</v>
       </c>
       <c r="M6">
-        <v>10.19770040271013</v>
+        <v>9.939675206102692</v>
       </c>
       <c r="N6">
-        <v>6.136112848971296</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.745126103862752</v>
+        <v>10.23813066140619</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.268872098710345</v>
       </c>
       <c r="Q6">
-        <v>14.31912378440444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.719982771151621</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.00036206281043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61559359198742</v>
+        <v>11.68723358551056</v>
       </c>
       <c r="C7">
-        <v>8.43503222688207</v>
+        <v>7.959398442026733</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.281031012257744</v>
+        <v>8.214941372269635</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.97327360989348</v>
+        <v>18.96062790206231</v>
       </c>
       <c r="H7">
-        <v>3.084432163637657</v>
+        <v>2.944120867728383</v>
       </c>
       <c r="I7">
-        <v>3.67772719727942</v>
+        <v>3.501316952480011</v>
       </c>
       <c r="J7">
-        <v>9.072760081171593</v>
+        <v>9.135297708461719</v>
       </c>
       <c r="K7">
-        <v>15.17216986633883</v>
+        <v>14.70552686328793</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.90102464063887</v>
       </c>
       <c r="M7">
-        <v>10.36324758108066</v>
+        <v>9.88148944455377</v>
       </c>
       <c r="N7">
-        <v>6.181236292857244</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.865856309592852</v>
+        <v>10.40486335940483</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.311721792064528</v>
       </c>
       <c r="Q7">
-        <v>14.2636080002448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.841354597290113</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.93605895784736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.69512971984797</v>
+        <v>12.73851963278569</v>
       </c>
       <c r="C8">
-        <v>8.576482242728698</v>
+        <v>8.155513625572887</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.415978379191563</v>
+        <v>8.331647119409517</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>19.6684272144319</v>
+        <v>18.66189870792681</v>
       </c>
       <c r="H8">
-        <v>2.886157800599616</v>
+        <v>2.759697816304169</v>
       </c>
       <c r="I8">
-        <v>3.524248397559614</v>
+        <v>3.365618497043101</v>
       </c>
       <c r="J8">
-        <v>8.945477937265682</v>
+        <v>8.998781249709168</v>
       </c>
       <c r="K8">
-        <v>14.92759604087341</v>
+        <v>14.4482843732376</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.65918056400657</v>
       </c>
       <c r="M8">
-        <v>11.05807684748117</v>
+        <v>9.658725118452347</v>
       </c>
       <c r="N8">
-        <v>6.375555193357176</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.380510746601853</v>
+        <v>11.10795436845399</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.498060662409973</v>
       </c>
       <c r="Q8">
-        <v>14.04093212642895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.357892737079696</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.68712538027373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.57794299757363</v>
+        <v>14.57191999274449</v>
       </c>
       <c r="C9">
-        <v>8.835133008174331</v>
+        <v>8.528856856245779</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.678528551190064</v>
+        <v>8.55837820337581</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>19.21595008655235</v>
+        <v>18.05784307619515</v>
       </c>
       <c r="H9">
-        <v>2.523294055696372</v>
+        <v>2.420846742671459</v>
       </c>
       <c r="I9">
-        <v>3.236392779797863</v>
+        <v>3.107849429090306</v>
       </c>
       <c r="J9">
-        <v>8.721992704789191</v>
+        <v>8.818895007282771</v>
       </c>
       <c r="K9">
-        <v>14.49510076988149</v>
+        <v>14.00025190508688</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.26544499382198</v>
       </c>
       <c r="M9">
-        <v>12.29545384049431</v>
+        <v>9.343937843660436</v>
       </c>
       <c r="N9">
-        <v>6.73984032840947</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.31623183108472</v>
+        <v>12.36558832839964</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.851653664630139</v>
       </c>
       <c r="Q9">
-        <v>13.66500598795587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.29484793248501</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.27643960271543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.80118892173027</v>
+        <v>15.77056667058238</v>
       </c>
       <c r="C10">
-        <v>9.060242619529614</v>
+        <v>8.826166562797574</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.749793111568724</v>
+        <v>8.610321952081264</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>18.7741722547578</v>
+        <v>17.80379845686933</v>
       </c>
       <c r="H10">
-        <v>2.300902733544503</v>
+        <v>2.217067182387463</v>
       </c>
       <c r="I10">
-        <v>3.050329887204998</v>
+        <v>2.946053828838747</v>
       </c>
       <c r="J10">
-        <v>8.54278241773128</v>
+        <v>8.571081279569947</v>
       </c>
       <c r="K10">
-        <v>14.13613574542824</v>
+        <v>13.61373232114982</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.95597386640964</v>
       </c>
       <c r="M10">
-        <v>13.15303164302575</v>
+        <v>9.12001935652401</v>
       </c>
       <c r="N10">
-        <v>6.898112113813943</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.87665627533593</v>
+        <v>13.22939547063844</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.001167611984642</v>
       </c>
       <c r="Q10">
-        <v>13.34743427010408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.85607109883561</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.89947681609632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.25207500192899</v>
+        <v>16.24254419872749</v>
       </c>
       <c r="C11">
-        <v>9.500833616971695</v>
+        <v>9.271247895699062</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.974751952496893</v>
+        <v>7.866113242988949</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>17.24170937760946</v>
+        <v>16.91420267065491</v>
       </c>
       <c r="H11">
-        <v>3.157588266802295</v>
+        <v>3.102149121428132</v>
       </c>
       <c r="I11">
-        <v>3.017880188280148</v>
+        <v>2.926779003149565</v>
       </c>
       <c r="J11">
-        <v>8.263076340465428</v>
+        <v>8.234403483600287</v>
       </c>
       <c r="K11">
-        <v>13.55740453061987</v>
+        <v>13.08612709239748</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.60790329638089</v>
       </c>
       <c r="M11">
-        <v>13.71987422973298</v>
+        <v>8.697898392645504</v>
       </c>
       <c r="N11">
-        <v>6.156858207982937</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.46527443182123</v>
+        <v>13.77066189795285</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.2495331514568</v>
       </c>
       <c r="Q11">
-        <v>12.69000441541936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.44819545777709</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.24280241720534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.39401048422812</v>
+        <v>16.4049059311609</v>
       </c>
       <c r="C12">
-        <v>9.864089241680185</v>
+        <v>9.611837935566605</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.557397561316346</v>
+        <v>7.470089968424796</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>16.15449342925981</v>
+        <v>16.0822728374079</v>
       </c>
       <c r="H12">
-        <v>4.430903978277054</v>
+        <v>4.392144563834697</v>
       </c>
       <c r="I12">
-        <v>3.009313939890151</v>
+        <v>2.920693562620479</v>
       </c>
       <c r="J12">
-        <v>8.083004415285032</v>
+        <v>8.122857338248824</v>
       </c>
       <c r="K12">
-        <v>13.21854267088772</v>
+        <v>12.8102313587444</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.45493260243044</v>
       </c>
       <c r="M12">
-        <v>14.02126489377587</v>
+        <v>8.442208878081727</v>
       </c>
       <c r="N12">
-        <v>5.572699176318112</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.99720460739705</v>
+        <v>14.0518632954446</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.660746786594113</v>
       </c>
       <c r="Q12">
-        <v>12.25029634565744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.982577029019495</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.84496454646589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.30306258984401</v>
+        <v>16.33412480929132</v>
       </c>
       <c r="C13">
-        <v>10.19749938776576</v>
+        <v>9.914328306880259</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.414551630072625</v>
+        <v>7.342261525228257</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>15.32076241035097</v>
+        <v>15.11920157843791</v>
       </c>
       <c r="H13">
-        <v>5.793340838938937</v>
+        <v>5.762064692735605</v>
       </c>
       <c r="I13">
-        <v>3.032953449935242</v>
+        <v>2.940785579099202</v>
       </c>
       <c r="J13">
-        <v>7.962195581735436</v>
+        <v>8.100234249744693</v>
       </c>
       <c r="K13">
-        <v>13.02946346748688</v>
+        <v>12.68753914356848</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.39862060461156</v>
       </c>
       <c r="M13">
-        <v>14.15035325592968</v>
+        <v>8.302620025260547</v>
       </c>
       <c r="N13">
-        <v>5.098786907225512</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.445707973484001</v>
+        <v>14.16538189861882</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.187450463797475</v>
       </c>
       <c r="Q13">
-        <v>11.93808552559854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.432474939942638</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.60833619245595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.13115780231058</v>
+        <v>16.17659699077545</v>
       </c>
       <c r="C14">
-        <v>10.42575957569898</v>
+        <v>10.11741057019041</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.483754200961585</v>
+        <v>7.41812256605597</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>14.87846677347578</v>
+        <v>14.45189392928315</v>
       </c>
       <c r="H14">
-        <v>6.773036653923178</v>
+        <v>6.744467227718383</v>
       </c>
       <c r="I14">
-        <v>3.066702748256316</v>
+        <v>2.969944021068132</v>
       </c>
       <c r="J14">
-        <v>7.906186661222265</v>
+        <v>8.102195879333861</v>
       </c>
       <c r="K14">
-        <v>12.9734759195141</v>
+        <v>12.66892796156576</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.3935935471437</v>
       </c>
       <c r="M14">
-        <v>14.16573627812507</v>
+        <v>8.264984898432054</v>
       </c>
       <c r="N14">
-        <v>4.85006625168493</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.016872366103962</v>
+        <v>14.17160730239283</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.941511617008917</v>
       </c>
       <c r="Q14">
-        <v>11.78408821750601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.00403219878034</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.51224847845425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.036329141567</v>
+        <v>16.08546036839848</v>
       </c>
       <c r="C15">
-        <v>10.47484323636674</v>
+        <v>10.16068750049493</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.522103706463729</v>
+        <v>7.458291480072403</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>14.81206508481217</v>
+        <v>14.28749446853797</v>
       </c>
       <c r="H15">
-        <v>7.002386761796656</v>
+        <v>6.97385527576033</v>
       </c>
       <c r="I15">
-        <v>3.086500645894806</v>
+        <v>2.988081286918723</v>
       </c>
       <c r="J15">
-        <v>7.902764609705875</v>
+        <v>8.109782934836202</v>
       </c>
       <c r="K15">
-        <v>12.98289997496896</v>
+        <v>12.68525558062107</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.40036484745614</v>
       </c>
       <c r="M15">
-        <v>14.13386354742266</v>
+        <v>8.275927204445654</v>
       </c>
       <c r="N15">
-        <v>4.803161835894131</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.894054317441901</v>
+        <v>14.13835107738126</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.896155784602532</v>
       </c>
       <c r="Q15">
-        <v>11.76772285275351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.881065190769236</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.51276350102465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.54589277162165</v>
+        <v>15.59667457736745</v>
       </c>
       <c r="C16">
-        <v>10.31679597343342</v>
+        <v>10.007142701591</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.506821191580683</v>
+        <v>7.450763692362584</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>15.18048479692974</v>
+        <v>14.33469645282491</v>
       </c>
       <c r="H16">
-        <v>6.809842493346731</v>
+        <v>6.77564557113926</v>
       </c>
       <c r="I16">
-        <v>3.167288429169869</v>
+        <v>3.057386588238824</v>
       </c>
       <c r="J16">
-        <v>8.001680449154859</v>
+        <v>8.216379661689274</v>
       </c>
       <c r="K16">
-        <v>13.16768532891018</v>
+        <v>12.86233312360364</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.46838589576475</v>
       </c>
       <c r="M16">
-        <v>13.76534116566861</v>
+        <v>8.444585565854275</v>
       </c>
       <c r="N16">
-        <v>4.821315533040612</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.742315220438082</v>
+        <v>13.77789118425637</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.922143247728525</v>
       </c>
       <c r="Q16">
-        <v>11.9660593813923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.727244359270207</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.74170429740172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.25681154098212</v>
+        <v>15.30194910243751</v>
       </c>
       <c r="C17">
-        <v>10.06846869288044</v>
+        <v>9.770727439449338</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.432501135242618</v>
+        <v>7.378065779788674</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>15.6762051421713</v>
+        <v>14.70870774742242</v>
       </c>
       <c r="H17">
-        <v>6.111865300218464</v>
+        <v>6.070749965397164</v>
       </c>
       <c r="I17">
-        <v>3.212033920927365</v>
+        <v>3.096284516679761</v>
       </c>
       <c r="J17">
-        <v>8.105867346935</v>
+        <v>8.326639751966804</v>
       </c>
       <c r="K17">
-        <v>13.33390530125017</v>
+        <v>13.01302841913927</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.54230000797687</v>
       </c>
       <c r="M17">
-        <v>13.46864409628218</v>
+        <v>8.584259101522292</v>
       </c>
       <c r="N17">
-        <v>4.952562664622926</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.860445882384802</v>
+        <v>13.49113081550463</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.057570095957047</v>
       </c>
       <c r="Q17">
-        <v>12.19427253973001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.8438751440305</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.96805434417836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12132221215595</v>
+        <v>15.15211938092199</v>
       </c>
       <c r="C18">
-        <v>9.721797934307434</v>
+        <v>9.444049457150832</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.448113717732975</v>
+        <v>7.385934113231385</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>16.41441975596685</v>
+        <v>15.35780911132459</v>
       </c>
       <c r="H18">
-        <v>4.940105104148785</v>
+        <v>4.888037328001554</v>
       </c>
       <c r="I18">
-        <v>3.219088758104714</v>
+        <v>3.099607461289437</v>
       </c>
       <c r="J18">
-        <v>8.236028443214467</v>
+        <v>8.45054520040979</v>
       </c>
       <c r="K18">
-        <v>13.5393849301258</v>
+        <v>13.19071981971546</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.65497104297996</v>
       </c>
       <c r="M18">
-        <v>13.20201051393314</v>
+        <v>8.735277627775998</v>
       </c>
       <c r="N18">
-        <v>5.273003356221007</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.226824141331404</v>
+        <v>13.23894162806061</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.379903389475307</v>
       </c>
       <c r="Q18">
-        <v>12.50138949657384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.208874134278643</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.25039920962814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11146220427407</v>
+        <v>15.12183235032835</v>
       </c>
       <c r="C19">
-        <v>9.383755471602544</v>
+        <v>9.125815138652863</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.74743725743904</v>
+        <v>7.663994280726037</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>17.33632902303441</v>
+        <v>16.18376792738469</v>
       </c>
       <c r="H19">
-        <v>3.608374036617216</v>
+        <v>3.538904991020694</v>
       </c>
       <c r="I19">
-        <v>3.210485078070649</v>
+        <v>3.093035716793487</v>
       </c>
       <c r="J19">
-        <v>8.381533293547697</v>
+        <v>8.578239651120652</v>
       </c>
       <c r="K19">
-        <v>13.79703378721351</v>
+        <v>13.40404152969612</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.80798492386149</v>
       </c>
       <c r="M19">
-        <v>12.99383889922729</v>
+        <v>8.907314017721694</v>
       </c>
       <c r="N19">
-        <v>5.815008492412248</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.761263282431317</v>
+        <v>13.04781404833678</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.922470210568927</v>
       </c>
       <c r="Q19">
-        <v>12.86380077350091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.741948509223947</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.56846075812681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.47180039641997</v>
+        <v>15.44569394372704</v>
       </c>
       <c r="C20">
-        <v>9.032095698177125</v>
+        <v>8.792870030988391</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.708973518212058</v>
+        <v>8.574680227199392</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>18.78024430562445</v>
+        <v>17.58818782116685</v>
       </c>
       <c r="H20">
-        <v>2.360172879468534</v>
+        <v>2.270223289579581</v>
       </c>
       <c r="I20">
-        <v>3.126794437385338</v>
+        <v>3.020386407544144</v>
       </c>
       <c r="J20">
-        <v>8.572992831427309</v>
+        <v>8.683015777089389</v>
       </c>
       <c r="K20">
-        <v>14.19149666736344</v>
+        <v>13.69533746240615</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.02018564502186</v>
       </c>
       <c r="M20">
-        <v>12.94801680199071</v>
+        <v>9.159952444843295</v>
       </c>
       <c r="N20">
-        <v>6.857131729897499</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.72675976545684</v>
+        <v>13.02588635514488</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.963628769590407</v>
       </c>
       <c r="Q20">
-        <v>13.38782137989351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.7056761065208</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.98270786066347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.38032836876272</v>
+        <v>16.34394727459008</v>
       </c>
       <c r="C21">
-        <v>9.148878819468397</v>
+        <v>8.918811549780894</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.935703387409042</v>
+        <v>8.784903181950991</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>18.72341195814851</v>
+        <v>18.63749034984963</v>
       </c>
       <c r="H21">
-        <v>2.152252901693129</v>
+        <v>2.082020543300373</v>
       </c>
       <c r="I21">
-        <v>2.977161568526959</v>
+        <v>2.894945099345579</v>
       </c>
       <c r="J21">
-        <v>8.478228725481769</v>
+        <v>8.277368031988598</v>
       </c>
       <c r="K21">
-        <v>14.00785643643001</v>
+        <v>13.39759361295265</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.79836360891337</v>
       </c>
       <c r="M21">
-        <v>13.54462272053095</v>
+        <v>8.995920839653856</v>
       </c>
       <c r="N21">
-        <v>7.128884366072731</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.25869782153623</v>
+        <v>13.61295974751637</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.222566300901202</v>
       </c>
       <c r="Q21">
-        <v>13.25382184622882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.23964451013567</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.66101663819497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.94990209290694</v>
+        <v>16.90952025541874</v>
       </c>
       <c r="C22">
-        <v>9.229576389825473</v>
+        <v>9.002328833748974</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.032884406965383</v>
+        <v>8.87538829616336</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>18.66297774367568</v>
+        <v>19.47456703810338</v>
       </c>
       <c r="H22">
-        <v>2.031507299326234</v>
+        <v>1.973747776167264</v>
       </c>
       <c r="I22">
-        <v>2.872543988455275</v>
+        <v>2.803320279849884</v>
       </c>
       <c r="J22">
-        <v>8.412838668409357</v>
+        <v>8.098803691628497</v>
       </c>
       <c r="K22">
-        <v>13.87993103139688</v>
+        <v>13.19137601243617</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.65607216651483</v>
       </c>
       <c r="M22">
-        <v>13.92581331356933</v>
+        <v>8.883444354397543</v>
       </c>
       <c r="N22">
-        <v>7.250926008743639</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.55786768426151</v>
+        <v>13.98644834079407</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.336231879403547</v>
       </c>
       <c r="Q22">
-        <v>13.157209960412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.54008025063241</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.43214646538621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.6546829131686</v>
+        <v>16.61454181792933</v>
       </c>
       <c r="C23">
-        <v>9.175524324417308</v>
+        <v>8.950649062748653</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.987723956032232</v>
+        <v>8.832473043256813</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>18.73161186884973</v>
+        <v>18.91256583633899</v>
       </c>
       <c r="H23">
-        <v>2.094933028859558</v>
+        <v>2.0299024679211</v>
       </c>
       <c r="I23">
-        <v>2.916880131345454</v>
+        <v>2.837903287160528</v>
       </c>
       <c r="J23">
-        <v>8.453298124154077</v>
+        <v>8.203809035316018</v>
       </c>
       <c r="K23">
-        <v>13.96159169162603</v>
+        <v>13.32283929980138</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.74371552125308</v>
       </c>
       <c r="M23">
-        <v>13.71869453356518</v>
+        <v>8.963361867263837</v>
       </c>
       <c r="N23">
-        <v>7.184250955793008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.4000168253029</v>
+        <v>13.78581730864386</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.275014040943335</v>
       </c>
       <c r="Q23">
-        <v>13.22306012101639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.38126464202317</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.58451014775751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.47306107044348</v>
+        <v>15.44463238329665</v>
       </c>
       <c r="C24">
-        <v>8.987587820894474</v>
+        <v>8.743938060091134</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.803149731407611</v>
+        <v>8.664924009437639</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>18.96113384748876</v>
+        <v>17.74871063114024</v>
       </c>
       <c r="H24">
-        <v>2.34177364531996</v>
+        <v>2.25164582689745</v>
       </c>
       <c r="I24">
-        <v>3.108429832993314</v>
+        <v>2.998686069532198</v>
       </c>
       <c r="J24">
-        <v>8.601764542134777</v>
+        <v>8.709958873755193</v>
       </c>
       <c r="K24">
-        <v>14.25563673553905</v>
+        <v>13.7502295386051</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.05985115455477</v>
       </c>
       <c r="M24">
-        <v>12.91285389436026</v>
+        <v>9.204041713821857</v>
       </c>
       <c r="N24">
-        <v>6.929742985693406</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.78033706868879</v>
+        <v>12.99257573714116</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.036740920081122</v>
       </c>
       <c r="Q24">
-        <v>13.46007640073812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.75902051074026</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.04794857772905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.08375239363913</v>
+        <v>14.08949879947389</v>
       </c>
       <c r="C25">
-        <v>8.782012897069041</v>
+        <v>8.45113328333983</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.598300054772906</v>
+        <v>8.487901343835476</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>19.27037122996488</v>
+        <v>18.08770944210319</v>
       </c>
       <c r="H25">
-        <v>2.619947768531951</v>
+        <v>2.51061427951603</v>
       </c>
       <c r="I25">
-        <v>3.326859540035576</v>
+        <v>3.192584771941033</v>
       </c>
       <c r="J25">
-        <v>8.771682753058222</v>
+        <v>8.885589279165165</v>
       </c>
       <c r="K25">
-        <v>14.58819480802449</v>
+        <v>14.10613157867103</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.35621082297168</v>
       </c>
       <c r="M25">
-        <v>11.982087977953</v>
+        <v>9.408366949861406</v>
       </c>
       <c r="N25">
-        <v>6.64578775836921</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.07021695538624</v>
+        <v>12.04821461263518</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.760667288848413</v>
       </c>
       <c r="Q25">
-        <v>13.73976966627205</v>
+        <v>10.0485312658047</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.37238030593419</v>
       </c>
     </row>
   </sheetData>
